--- a/ip_code.xlsx
+++ b/ip_code.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28140" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="620">
   <si>
     <t>上级地域</t>
   </si>
@@ -1183,707 +1183,737 @@
     <t>巴巴多斯</t>
   </si>
   <si>
+    <t>比利时</t>
+  </si>
+  <si>
+    <t>布基纳法索</t>
+  </si>
+  <si>
+    <t>保加利亚</t>
+  </si>
+  <si>
+    <t>巴林</t>
+  </si>
+  <si>
+    <t>布隆迪</t>
+  </si>
+  <si>
+    <t>贝宁</t>
+  </si>
+  <si>
+    <t>圣巴泰勒米岛</t>
+  </si>
+  <si>
+    <t>百慕大</t>
+  </si>
+  <si>
+    <t>文莱</t>
+  </si>
+  <si>
+    <t>玻利维亚</t>
+  </si>
+  <si>
+    <t>荷兰加勒比区</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>巴哈马</t>
+  </si>
+  <si>
+    <t>不丹</t>
+  </si>
+  <si>
+    <t>布韦岛</t>
+  </si>
+  <si>
+    <t>博茨瓦纳</t>
+  </si>
+  <si>
+    <t>白俄罗斯</t>
+  </si>
+  <si>
+    <t>伯利兹</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>中非</t>
+  </si>
+  <si>
+    <t>瑞士</t>
+  </si>
+  <si>
+    <t>科特迪瓦</t>
+  </si>
+  <si>
+    <t>库克群岛</t>
+  </si>
+  <si>
+    <t>智利</t>
+  </si>
+  <si>
+    <t>喀麦隆</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>哥伦比亚</t>
+  </si>
+  <si>
+    <t>哥斯达黎加</t>
+  </si>
+  <si>
+    <t>古巴</t>
+  </si>
+  <si>
+    <t>佛得角</t>
+  </si>
+  <si>
+    <t>圣诞岛</t>
+  </si>
+  <si>
+    <t>塞浦路斯</t>
+  </si>
+  <si>
+    <t>捷克</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>吉布提</t>
+  </si>
+  <si>
+    <t>丹麦</t>
+  </si>
+  <si>
+    <t>多米尼克</t>
+  </si>
+  <si>
+    <t>阿尔及利亚</t>
+  </si>
+  <si>
+    <t>厄瓜多尔</t>
+  </si>
+  <si>
+    <t>爱沙尼亚</t>
+  </si>
+  <si>
+    <t>埃及</t>
+  </si>
+  <si>
+    <t>西撒哈拉</t>
+  </si>
+  <si>
+    <t>厄立特里亚</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>埃塞俄比亚</t>
+  </si>
+  <si>
+    <t>芬兰</t>
+  </si>
+  <si>
+    <t>法罗群岛</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>加蓬</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>格林纳达</t>
+  </si>
+  <si>
+    <t>格鲁吉亚</t>
+  </si>
+  <si>
+    <t>法属圭亚那</t>
+  </si>
+  <si>
+    <t>加纳</t>
+  </si>
+  <si>
+    <t>直布罗陀</t>
+  </si>
+  <si>
+    <t>格陵兰</t>
+  </si>
+  <si>
+    <t>冈比亚</t>
+  </si>
+  <si>
+    <t>几内亚</t>
+  </si>
+  <si>
+    <t>瓜德罗普</t>
+  </si>
+  <si>
+    <t>赤道几内亚</t>
+  </si>
+  <si>
+    <t>希腊</t>
+  </si>
+  <si>
+    <t>危地马拉</t>
+  </si>
+  <si>
+    <t>关岛</t>
+  </si>
+  <si>
+    <t>几内亚比绍</t>
+  </si>
+  <si>
+    <t>圭亚那</t>
+  </si>
+  <si>
+    <t>香港</t>
+  </si>
+  <si>
+    <t>赫德岛和麦克唐纳群岛</t>
+  </si>
+  <si>
+    <t>洪都拉斯</t>
+  </si>
+  <si>
+    <t>克罗地亚</t>
+  </si>
+  <si>
+    <t>海地</t>
+  </si>
+  <si>
+    <t>匈牙利</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
+  </si>
+  <si>
+    <t>以色列</t>
+  </si>
+  <si>
+    <t>马恩岛</t>
+  </si>
+  <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t>伊拉克</t>
+  </si>
+  <si>
+    <t>伊朗</t>
+  </si>
+  <si>
+    <t>冰岛</t>
+  </si>
+  <si>
+    <t>意大利</t>
+  </si>
+  <si>
+    <t>泽西岛</t>
+  </si>
+  <si>
+    <t>牙买加</t>
+  </si>
+  <si>
+    <t>约旦</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>肯尼亚</t>
+  </si>
+  <si>
+    <t>吉尔吉斯斯坦</t>
+  </si>
+  <si>
+    <t>柬埔寨</t>
+  </si>
+  <si>
+    <t>基里巴斯</t>
+  </si>
+  <si>
+    <t>科摩罗</t>
+  </si>
+  <si>
+    <t>圣基茨和尼维斯</t>
+  </si>
+  <si>
+    <t>朝鲜</t>
+  </si>
+  <si>
+    <t>韩国</t>
+  </si>
+  <si>
+    <t>科威特</t>
+  </si>
+  <si>
+    <t>开曼群岛</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
+  </si>
+  <si>
+    <t>老挝</t>
+  </si>
+  <si>
+    <t>黎巴嫩</t>
+  </si>
+  <si>
+    <t>圣卢西亚</t>
+  </si>
+  <si>
+    <t>列支敦士登</t>
+  </si>
+  <si>
+    <t>斯里兰卡</t>
+  </si>
+  <si>
+    <t>利比里亚</t>
+  </si>
+  <si>
+    <t>莱索托</t>
+  </si>
+  <si>
+    <t>立陶宛</t>
+  </si>
+  <si>
+    <t>卢森堡</t>
+  </si>
+  <si>
+    <t>拉脱维亚</t>
+  </si>
+  <si>
+    <t>利比亚</t>
+  </si>
+  <si>
+    <t>摩洛哥</t>
+  </si>
+  <si>
+    <t>摩纳哥</t>
+  </si>
+  <si>
+    <t>摩尔多瓦</t>
+  </si>
+  <si>
+    <t>法属圣马丁</t>
+  </si>
+  <si>
+    <t>马达加斯加</t>
+  </si>
+  <si>
+    <t>马绍尔群岛</t>
+  </si>
+  <si>
+    <t>马里</t>
+  </si>
+  <si>
+    <t>缅甸</t>
+  </si>
+  <si>
+    <t>澳门</t>
+  </si>
+  <si>
+    <t>马提尼克</t>
+  </si>
+  <si>
+    <t>毛里塔尼亚</t>
+  </si>
+  <si>
+    <t>马耳他</t>
+  </si>
+  <si>
+    <t>毛里求斯</t>
+  </si>
+  <si>
+    <t>马尔代夫</t>
+  </si>
+  <si>
+    <t>马拉维</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>马来西亚</t>
+  </si>
+  <si>
+    <t>莫桑比克</t>
+  </si>
+  <si>
+    <t>纳米比亚</t>
+  </si>
+  <si>
+    <t>新喀里多尼亚</t>
+  </si>
+  <si>
+    <t>尼日尔</t>
+  </si>
+  <si>
+    <t>诺福克岛</t>
+  </si>
+  <si>
+    <t>尼日利亚</t>
+  </si>
+  <si>
+    <t>尼加拉瓜</t>
+  </si>
+  <si>
+    <t>荷兰</t>
+  </si>
+  <si>
+    <t>挪威</t>
+  </si>
+  <si>
+    <t>尼泊尔</t>
+  </si>
+  <si>
+    <t>瑙鲁</t>
+  </si>
+  <si>
+    <t>纽埃</t>
+  </si>
+  <si>
+    <t>新西兰</t>
+  </si>
+  <si>
+    <t>阿曼</t>
+  </si>
+  <si>
+    <t>巴拿马</t>
+  </si>
+  <si>
+    <t>秘鲁</t>
+  </si>
+  <si>
+    <t>法属波利尼西亚</t>
+  </si>
+  <si>
+    <t>巴布亚新几内亚</t>
+  </si>
+  <si>
+    <t>菲律宾</t>
+  </si>
+  <si>
+    <t>巴基斯坦</t>
+  </si>
+  <si>
+    <t>波兰</t>
+  </si>
+  <si>
+    <t>圣皮埃尔和密克隆</t>
+  </si>
+  <si>
+    <t>皮特凯恩群岛</t>
+  </si>
+  <si>
+    <t>波多黎各</t>
+  </si>
+  <si>
+    <t>巴勒斯坦</t>
+  </si>
+  <si>
+    <t>葡萄牙</t>
+  </si>
+  <si>
+    <t>巴拉圭</t>
+  </si>
+  <si>
+    <t>卡塔尔</t>
+  </si>
+  <si>
+    <t>留尼汪</t>
+  </si>
+  <si>
+    <t>罗马尼亚</t>
+  </si>
+  <si>
+    <t>塞尔维亚</t>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+  </si>
+  <si>
+    <t>卢旺达</t>
+  </si>
+  <si>
+    <t>所罗门群岛</t>
+  </si>
+  <si>
+    <t>塞舌尔</t>
+  </si>
+  <si>
+    <t>苏丹</t>
+  </si>
+  <si>
+    <t>瑞典</t>
+  </si>
+  <si>
+    <t>新加坡</t>
+  </si>
+  <si>
+    <t>斯洛文尼亚</t>
+  </si>
+  <si>
+    <t>斯洛伐克</t>
+  </si>
+  <si>
+    <t>塞拉利昂</t>
+  </si>
+  <si>
+    <t>圣马力诺</t>
+  </si>
+  <si>
+    <t>塞内加尔</t>
+  </si>
+  <si>
+    <t>索马里</t>
+  </si>
+  <si>
+    <t>苏里南</t>
+  </si>
+  <si>
+    <t>萨尔瓦多</t>
+  </si>
+  <si>
+    <t>叙利亚</t>
+  </si>
+  <si>
+    <t>斯威士兰</t>
+  </si>
+  <si>
+    <t>乍得</t>
+  </si>
+  <si>
+    <t>多哥</t>
+  </si>
+  <si>
+    <t>泰国</t>
+  </si>
+  <si>
+    <t>塔吉克斯坦</t>
+  </si>
+  <si>
+    <t>托克劳</t>
+  </si>
+  <si>
+    <t>东帝汶</t>
+  </si>
+  <si>
+    <t>土库曼斯坦</t>
+  </si>
+  <si>
+    <t>突尼斯</t>
+  </si>
+  <si>
+    <t>汤加</t>
+  </si>
+  <si>
+    <t>土耳其</t>
+  </si>
+  <si>
+    <t>特立尼达和多巴哥</t>
+  </si>
+  <si>
+    <t>图瓦卢</t>
+  </si>
+  <si>
+    <t>台湾</t>
+  </si>
+  <si>
+    <t>坦桑尼亚</t>
+  </si>
+  <si>
+    <t>乌克兰</t>
+  </si>
+  <si>
+    <t>乌干达</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>乌拉圭</t>
+  </si>
+  <si>
+    <t>乌兹别克斯坦</t>
+  </si>
+  <si>
+    <t>梵蒂冈</t>
+  </si>
+  <si>
+    <t>圣文森特和格林纳丁斯</t>
+  </si>
+  <si>
+    <t>委内瑞拉</t>
+  </si>
+  <si>
+    <t>英属维尔京群岛</t>
+  </si>
+  <si>
+    <t>美属维尔京群岛</t>
+  </si>
+  <si>
+    <t>越南</t>
+  </si>
+  <si>
+    <t>瓦努阿图</t>
+  </si>
+  <si>
+    <t>也门</t>
+  </si>
+  <si>
+    <t>马约特</t>
+  </si>
+  <si>
+    <t>南非</t>
+  </si>
+  <si>
+    <t>赞比亚</t>
+  </si>
+  <si>
+    <t>津巴布韦</t>
+  </si>
+  <si>
+    <t>全球</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全球 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙特阿拉伯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>马其顿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多米尼加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>印尼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>孟加拉</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>布基纳法索</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>布隆迪</t>
-  </si>
-  <si>
-    <t>贝宁</t>
-  </si>
-  <si>
-    <t>圣巴泰勒米岛</t>
-  </si>
-  <si>
-    <t>百慕大</t>
-  </si>
-  <si>
-    <t>文莱</t>
-  </si>
-  <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
-    <t>荷兰加勒比区</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>巴哈马</t>
-  </si>
-  <si>
-    <t>不丹</t>
-  </si>
-  <si>
-    <t>布韦岛</t>
-  </si>
-  <si>
-    <t>博茨瓦纳</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>伯利兹</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>科科斯群岛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>斐济群岛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙古</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦利斯和富图纳群岛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑山共和国</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>格恩西岛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚果（布）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>刚果（金）</t>
-  </si>
-  <si>
-    <t>中非</t>
-  </si>
-  <si>
-    <t>刚果（布）</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>库克群岛</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>佛得角</t>
-  </si>
-  <si>
-    <t>圣诞岛</t>
-  </si>
-  <si>
-    <t>塞浦路斯</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>吉布提</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>多米尼克</t>
-  </si>
-  <si>
-    <t>多米尼加</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>西撒哈拉</t>
-  </si>
-  <si>
-    <t>厄立特里亚</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>埃塞俄比亚</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>斐济群岛</t>
-  </si>
-  <si>
-    <t>马尔维纳斯群岛（福克兰）</t>
-  </si>
-  <si>
-    <t>密克罗尼西亚联邦</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>加蓬</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>格林纳达</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
-    <t>法属圭亚那</t>
-  </si>
-  <si>
-    <t>根西岛</t>
-  </si>
-  <si>
-    <t>加纳</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>格陵兰</t>
-  </si>
-  <si>
-    <t>冈比亚</t>
-  </si>
-  <si>
-    <t>几内亚</t>
-  </si>
-  <si>
-    <t>瓜德罗普</t>
-  </si>
-  <si>
-    <t>赤道几内亚</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>南乔治亚岛和南桑威奇群岛</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>关岛</t>
-  </si>
-  <si>
-    <t>几内亚比绍</t>
-  </si>
-  <si>
-    <t>圭亚那</t>
-  </si>
-  <si>
-    <t>香港</t>
-  </si>
-  <si>
-    <t>赫德岛和麦克唐纳群岛</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>印尼</t>
-  </si>
-  <si>
-    <t>爱尔兰</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>马恩岛</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>英属印度洋领地</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>泽西岛</t>
-  </si>
-  <si>
-    <t>牙买加</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>肯尼亚</t>
-  </si>
-  <si>
-    <t>吉尔吉斯斯坦</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>基里巴斯</t>
-  </si>
-  <si>
-    <t>科摩罗</t>
-  </si>
-  <si>
-    <t>圣基茨和尼维斯</t>
-  </si>
-  <si>
-    <t>朝鲜</t>
-  </si>
-  <si>
-    <t>韩国</t>
-  </si>
-  <si>
-    <t>科威特</t>
-  </si>
-  <si>
-    <t>开曼群岛</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>老挝</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>圣卢西亚</t>
-  </si>
-  <si>
-    <t>列支敦士登</t>
-  </si>
-  <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
-    <t>利比里亚</t>
-  </si>
-  <si>
-    <t>莱索托</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>拉脱维亚</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>摩纳哥</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>黑山</t>
-  </si>
-  <si>
-    <t>法属圣马丁</t>
-  </si>
-  <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
-    <t>马绍尔群岛</t>
-  </si>
-  <si>
-    <t>马其顿</t>
-  </si>
-  <si>
-    <t>马里</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>蒙古国；蒙古</t>
-  </si>
-  <si>
-    <t>澳门</t>
-  </si>
-  <si>
-    <t>北马里亚纳群岛</t>
-  </si>
-  <si>
-    <t>马提尼克</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>蒙塞拉特岛</t>
-  </si>
-  <si>
-    <t>马耳他</t>
-  </si>
-  <si>
-    <t>毛里求斯</t>
-  </si>
-  <si>
-    <t>马尔代夫</t>
-  </si>
-  <si>
-    <t>马拉维</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>马来西亚</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>纳米比亚</t>
-  </si>
-  <si>
-    <t>新喀里多尼亚</t>
-  </si>
-  <si>
-    <t>尼日尔</t>
-  </si>
-  <si>
-    <t>诺福克岛</t>
-  </si>
-  <si>
-    <t>尼日利亚</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>荷兰</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>尼泊尔</t>
-  </si>
-  <si>
-    <t>瑙鲁</t>
-  </si>
-  <si>
-    <t>纽埃</t>
-  </si>
-  <si>
-    <t>新西兰</t>
-  </si>
-  <si>
-    <t>阿曼</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>法属波利尼西亚</t>
-  </si>
-  <si>
-    <t>巴布亚新几内亚</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>圣皮埃尔和密克隆</t>
-  </si>
-  <si>
-    <t>皮特凯恩群岛</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>巴勒斯坦</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>帕劳</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>留尼汪</t>
-  </si>
-  <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
-    <t>卢旺达</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>所罗门群岛</t>
-  </si>
-  <si>
-    <t>塞舌尔</t>
-  </si>
-  <si>
-    <t>苏丹</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>圣赫勒拿</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>南苏丹共和国</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙特塞拉特</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特克斯科斯群岛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣赫勒那</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英属印度洋领土</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西萨摩亚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>法属南部领土</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>斯瓦尔巴群岛和扬马延岛</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>塞拉利昂</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
-    <t>索马里</t>
-  </si>
-  <si>
-    <t>苏里南</t>
-  </si>
-  <si>
-    <t>南苏丹</t>
-  </si>
-  <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>斯威士兰</t>
-  </si>
-  <si>
-    <t>特克斯和凯科斯群岛</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>法属南部领地</t>
-  </si>
-  <si>
-    <t>多哥</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>塔吉克斯坦</t>
-  </si>
-  <si>
-    <t>托克劳</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>突尼斯</t>
-  </si>
-  <si>
-    <t>汤加</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>特立尼达和多巴哥</t>
-  </si>
-  <si>
-    <t>图瓦卢</t>
-  </si>
-  <si>
-    <t>台湾</t>
-  </si>
-  <si>
-    <t>坦桑尼亚</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>乌干达</t>
-  </si>
-  <si>
-    <t>美国本土外小岛屿</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>乌兹别克斯坦</t>
-  </si>
-  <si>
-    <t>梵蒂冈</t>
-  </si>
-  <si>
-    <t>圣文森特和格林纳丁斯</t>
-  </si>
-  <si>
-    <t>委内瑞拉</t>
-  </si>
-  <si>
-    <t>英属维尔京群岛</t>
-  </si>
-  <si>
-    <t>美属维尔京群岛</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
-    <t>瓦利斯和富图纳</t>
-  </si>
-  <si>
-    <t>萨摩亚</t>
-  </si>
-  <si>
-    <t>也门</t>
-  </si>
-  <si>
-    <t>马约特</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>赞比亚</t>
-  </si>
-  <si>
-    <t>津巴布韦</t>
-  </si>
-  <si>
-    <t>全球</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>科科斯(基林)群岛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>南乔治亚岛和南桑德韦奇岛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>美属太平洋各群岛(包括:中途岛、约翰斯顿岛、豪兰岛、贝克岛和威克岛等)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝劳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣多美与普林西比</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>马尔维纳斯群岛(福克兰群岛)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北马里亚纳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>密克罗尼西亚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1904,7 +1934,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1947,23 +1977,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1981,14 +1996,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2287,6 +2304,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -2319,22 +2337,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C618"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="B437" sqref="B437"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:3">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2345,7 +2363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:3">
+    <row r="2" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2356,7 +2374,7 @@
         <v>1156110000</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:3">
+    <row r="3" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2367,7 +2385,7 @@
         <v>1156120000</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:3">
+    <row r="4" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -2378,7 +2396,7 @@
         <v>1156130000</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:3">
+    <row r="5" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2389,7 +2407,7 @@
         <v>1156130100</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:3">
+    <row r="6" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2400,7 +2418,7 @@
         <v>1156130200</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:3">
+    <row r="7" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -2411,7 +2429,7 @@
         <v>1156130300</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:3">
+    <row r="8" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2422,7 +2440,7 @@
         <v>1156130400</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:3">
+    <row r="9" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -2433,7 +2451,7 @@
         <v>1156130500</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:3">
+    <row r="10" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -2444,7 +2462,7 @@
         <v>1156130600</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:3">
+    <row r="11" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -2455,7 +2473,7 @@
         <v>1156130700</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:3">
+    <row r="12" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -2466,7 +2484,7 @@
         <v>1156130800</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:3">
+    <row r="13" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -2477,7 +2495,7 @@
         <v>1156130900</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:3">
+    <row r="14" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -2488,7 +2506,7 @@
         <v>1156131000</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:3">
+    <row r="15" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -2499,7 +2517,7 @@
         <v>1156131100</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:3">
+    <row r="16" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -2510,7 +2528,7 @@
         <v>1156140000</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:3">
+    <row r="17" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -2521,7 +2539,7 @@
         <v>1156140100</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:3">
+    <row r="18" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -2532,7 +2550,7 @@
         <v>1156140200</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:3">
+    <row r="19" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -2543,7 +2561,7 @@
         <v>1156140300</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:3">
+    <row r="20" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -2554,7 +2572,7 @@
         <v>1156140400</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:3">
+    <row r="21" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -2565,7 +2583,7 @@
         <v>1156140500</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:3">
+    <row r="22" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -2576,7 +2594,7 @@
         <v>1156140600</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:3">
+    <row r="23" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -2587,7 +2605,7 @@
         <v>1156140700</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:3">
+    <row r="24" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
@@ -2598,7 +2616,7 @@
         <v>1156140800</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:3">
+    <row r="25" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
@@ -2609,7 +2627,7 @@
         <v>1156140900</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:3">
+    <row r="26" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -2620,7 +2638,7 @@
         <v>1156141000</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:3">
+    <row r="27" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
@@ -2631,7 +2649,7 @@
         <v>1156141100</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:3">
+    <row r="28" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -2642,7 +2660,7 @@
         <v>1156150000</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:3">
+    <row r="29" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
@@ -2653,7 +2671,7 @@
         <v>1156150100</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:3">
+    <row r="30" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -2664,7 +2682,7 @@
         <v>1156150200</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:3">
+    <row r="31" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -2675,7 +2693,7 @@
         <v>1156150300</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:3">
+    <row r="32" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
@@ -2686,7 +2704,7 @@
         <v>1156150400</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:3">
+    <row r="33" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
@@ -2697,7 +2715,7 @@
         <v>1156150500</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:3">
+    <row r="34" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
@@ -2708,7 +2726,7 @@
         <v>1156150600</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:3">
+    <row r="35" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
@@ -2719,7 +2737,7 @@
         <v>1156150700</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:3">
+    <row r="36" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
@@ -2730,7 +2748,7 @@
         <v>1156150800</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:3">
+    <row r="37" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>29</v>
       </c>
@@ -2741,7 +2759,7 @@
         <v>1156150900</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:3">
+    <row r="38" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>29</v>
       </c>
@@ -2752,7 +2770,7 @@
         <v>1156152200</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:3">
+    <row r="39" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>29</v>
       </c>
@@ -2763,7 +2781,7 @@
         <v>1156152500</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:3">
+    <row r="40" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>29</v>
       </c>
@@ -2774,7 +2792,7 @@
         <v>1156152900</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:3">
+    <row r="41" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>42</v>
       </c>
@@ -2785,7 +2803,7 @@
         <v>1156210000</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:3">
+    <row r="42" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -2796,7 +2814,7 @@
         <v>1156210100</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:3">
+    <row r="43" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -2807,7 +2825,7 @@
         <v>1156210200</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:3">
+    <row r="44" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
@@ -2818,7 +2836,7 @@
         <v>1156210300</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:3">
+    <row r="45" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>42</v>
       </c>
@@ -2829,7 +2847,7 @@
         <v>1156210400</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:3">
+    <row r="46" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>42</v>
       </c>
@@ -2840,7 +2858,7 @@
         <v>1156210500</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:3">
+    <row r="47" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>42</v>
       </c>
@@ -2851,7 +2869,7 @@
         <v>1156210600</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:3">
+    <row r="48" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
@@ -2862,7 +2880,7 @@
         <v>1156210700</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:3">
+    <row r="49" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>42</v>
       </c>
@@ -2873,7 +2891,7 @@
         <v>1156210800</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:3">
+    <row r="50" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>42</v>
       </c>
@@ -2884,7 +2902,7 @@
         <v>1156210900</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:3">
+    <row r="51" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>42</v>
       </c>
@@ -2895,7 +2913,7 @@
         <v>1156211000</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:3">
+    <row r="52" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>42</v>
       </c>
@@ -2906,7 +2924,7 @@
         <v>1156211100</v>
       </c>
     </row>
-    <row r="53" ht="16.5" spans="1:3">
+    <row r="53" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>42</v>
       </c>
@@ -2917,7 +2935,7 @@
         <v>1156211200</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:3">
+    <row r="54" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>42</v>
       </c>
@@ -2928,7 +2946,7 @@
         <v>1156211300</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="1:3">
+    <row r="55" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>42</v>
       </c>
@@ -2939,7 +2957,7 @@
         <v>1156211400</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="1:3">
+    <row r="56" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
@@ -2950,7 +2968,7 @@
         <v>1156220000</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="1:3">
+    <row r="57" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>57</v>
       </c>
@@ -2961,7 +2979,7 @@
         <v>1156220100</v>
       </c>
     </row>
-    <row r="58" ht="16.5" spans="1:3">
+    <row r="58" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
@@ -2972,7 +2990,7 @@
         <v>1156220200</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="1:3">
+    <row r="59" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
@@ -2983,7 +3001,7 @@
         <v>1156220300</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="1:3">
+    <row r="60" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
         <v>57</v>
       </c>
@@ -2994,7 +3012,7 @@
         <v>1156220400</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="1:3">
+    <row r="61" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>57</v>
       </c>
@@ -3005,7 +3023,7 @@
         <v>1156220500</v>
       </c>
     </row>
-    <row r="62" ht="16.5" spans="1:3">
+    <row r="62" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>57</v>
       </c>
@@ -3016,7 +3034,7 @@
         <v>1156220600</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="1:3">
+    <row r="63" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
@@ -3027,7 +3045,7 @@
         <v>1156220700</v>
       </c>
     </row>
-    <row r="64" ht="16.5" spans="1:3">
+    <row r="64" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>57</v>
       </c>
@@ -3038,7 +3056,7 @@
         <v>1156220800</v>
       </c>
     </row>
-    <row r="65" ht="16.5" spans="1:3">
+    <row r="65" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>57</v>
       </c>
@@ -3049,7 +3067,7 @@
         <v>1156222400</v>
       </c>
     </row>
-    <row r="66" ht="16.5" spans="1:3">
+    <row r="66" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
         <v>67</v>
       </c>
@@ -3060,7 +3078,7 @@
         <v>1156230000</v>
       </c>
     </row>
-    <row r="67" ht="16.5" spans="1:3">
+    <row r="67" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
         <v>67</v>
       </c>
@@ -3071,7 +3089,7 @@
         <v>1156230100</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="1:3">
+    <row r="68" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
@@ -3082,7 +3100,7 @@
         <v>1156230200</v>
       </c>
     </row>
-    <row r="69" ht="16.5" spans="1:3">
+    <row r="69" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
         <v>67</v>
       </c>
@@ -3093,7 +3111,7 @@
         <v>1156230300</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="1:3">
+    <row r="70" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>67</v>
       </c>
@@ -3104,7 +3122,7 @@
         <v>1156230400</v>
       </c>
     </row>
-    <row r="71" ht="16.5" spans="1:3">
+    <row r="71" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
         <v>67</v>
       </c>
@@ -3115,7 +3133,7 @@
         <v>1156230500</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="1:3">
+    <row r="72" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
         <v>67</v>
       </c>
@@ -3126,7 +3144,7 @@
         <v>1156230600</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="1:3">
+    <row r="73" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
         <v>67</v>
       </c>
@@ -3137,7 +3155,7 @@
         <v>1156230700</v>
       </c>
     </row>
-    <row r="74" ht="16.5" spans="1:3">
+    <row r="74" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>67</v>
       </c>
@@ -3148,7 +3166,7 @@
         <v>1156230800</v>
       </c>
     </row>
-    <row r="75" ht="16.5" spans="1:3">
+    <row r="75" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>67</v>
       </c>
@@ -3159,7 +3177,7 @@
         <v>1156230900</v>
       </c>
     </row>
-    <row r="76" ht="16.5" spans="1:3">
+    <row r="76" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
         <v>67</v>
       </c>
@@ -3170,7 +3188,7 @@
         <v>1156231000</v>
       </c>
     </row>
-    <row r="77" ht="16.5" spans="1:3">
+    <row r="77" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
         <v>67</v>
       </c>
@@ -3181,7 +3199,7 @@
         <v>1156231100</v>
       </c>
     </row>
-    <row r="78" ht="16.5" spans="1:3">
+    <row r="78" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
         <v>67</v>
       </c>
@@ -3192,7 +3210,7 @@
         <v>1156231200</v>
       </c>
     </row>
-    <row r="79" ht="16.5" spans="1:3">
+    <row r="79" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
         <v>67</v>
       </c>
@@ -3203,7 +3221,7 @@
         <v>1156232700</v>
       </c>
     </row>
-    <row r="80" ht="16.5" spans="1:3">
+    <row r="80" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
         <v>81</v>
       </c>
@@ -3214,7 +3232,7 @@
         <v>1156310000</v>
       </c>
     </row>
-    <row r="81" ht="16.5" spans="1:3">
+    <row r="81" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
         <v>82</v>
       </c>
@@ -3225,7 +3243,7 @@
         <v>1156320000</v>
       </c>
     </row>
-    <row r="82" ht="16.5" spans="1:3">
+    <row r="82" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
         <v>82</v>
       </c>
@@ -3236,7 +3254,7 @@
         <v>1156320100</v>
       </c>
     </row>
-    <row r="83" ht="16.5" spans="1:3">
+    <row r="83" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
         <v>82</v>
       </c>
@@ -3247,7 +3265,7 @@
         <v>1156320200</v>
       </c>
     </row>
-    <row r="84" ht="16.5" spans="1:3">
+    <row r="84" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
         <v>82</v>
       </c>
@@ -3258,7 +3276,7 @@
         <v>1156320300</v>
       </c>
     </row>
-    <row r="85" ht="16.5" spans="1:3">
+    <row r="85" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
         <v>82</v>
       </c>
@@ -3269,7 +3287,7 @@
         <v>1156320400</v>
       </c>
     </row>
-    <row r="86" ht="16.5" spans="1:3">
+    <row r="86" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
         <v>82</v>
       </c>
@@ -3280,7 +3298,7 @@
         <v>1156320500</v>
       </c>
     </row>
-    <row r="87" ht="16.5" spans="1:3">
+    <row r="87" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
         <v>82</v>
       </c>
@@ -3291,7 +3309,7 @@
         <v>1156320600</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="1:3">
+    <row r="88" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
         <v>82</v>
       </c>
@@ -3302,7 +3320,7 @@
         <v>1156320700</v>
       </c>
     </row>
-    <row r="89" ht="16.5" spans="1:3">
+    <row r="89" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
         <v>82</v>
       </c>
@@ -3313,7 +3331,7 @@
         <v>1156320800</v>
       </c>
     </row>
-    <row r="90" ht="16.5" spans="1:3">
+    <row r="90" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="3" t="s">
         <v>82</v>
       </c>
@@ -3324,7 +3342,7 @@
         <v>1156320900</v>
       </c>
     </row>
-    <row r="91" ht="16.5" spans="1:3">
+    <row r="91" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="3" t="s">
         <v>82</v>
       </c>
@@ -3335,7 +3353,7 @@
         <v>1156321000</v>
       </c>
     </row>
-    <row r="92" ht="16.5" spans="1:3">
+    <row r="92" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
         <v>82</v>
       </c>
@@ -3346,7 +3364,7 @@
         <v>1156321100</v>
       </c>
     </row>
-    <row r="93" ht="16.5" spans="1:3">
+    <row r="93" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
         <v>82</v>
       </c>
@@ -3357,7 +3375,7 @@
         <v>1156321200</v>
       </c>
     </row>
-    <row r="94" ht="16.5" spans="1:3">
+    <row r="94" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="3" t="s">
         <v>82</v>
       </c>
@@ -3368,7 +3386,7 @@
         <v>1156321300</v>
       </c>
     </row>
-    <row r="95" ht="16.5" spans="1:3">
+    <row r="95" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
         <v>96</v>
       </c>
@@ -3379,7 +3397,7 @@
         <v>1156330000</v>
       </c>
     </row>
-    <row r="96" ht="16.5" spans="1:3">
+    <row r="96" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="3" t="s">
         <v>96</v>
       </c>
@@ -3390,7 +3408,7 @@
         <v>1156330100</v>
       </c>
     </row>
-    <row r="97" ht="16.5" spans="1:3">
+    <row r="97" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
@@ -3401,7 +3419,7 @@
         <v>1156330200</v>
       </c>
     </row>
-    <row r="98" ht="16.5" spans="1:3">
+    <row r="98" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
         <v>96</v>
       </c>
@@ -3412,7 +3430,7 @@
         <v>1156330300</v>
       </c>
     </row>
-    <row r="99" ht="16.5" spans="1:3">
+    <row r="99" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="3" t="s">
         <v>96</v>
       </c>
@@ -3423,7 +3441,7 @@
         <v>1156330400</v>
       </c>
     </row>
-    <row r="100" ht="16.5" spans="1:3">
+    <row r="100" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="3" t="s">
         <v>96</v>
       </c>
@@ -3434,7 +3452,7 @@
         <v>1156330500</v>
       </c>
     </row>
-    <row r="101" ht="16.5" spans="1:3">
+    <row r="101" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="3" t="s">
         <v>96</v>
       </c>
@@ -3445,7 +3463,7 @@
         <v>1156330600</v>
       </c>
     </row>
-    <row r="102" ht="16.5" spans="1:3">
+    <row r="102" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="3" t="s">
         <v>96</v>
       </c>
@@ -3456,7 +3474,7 @@
         <v>1156330700</v>
       </c>
     </row>
-    <row r="103" ht="16.5" spans="1:3">
+    <row r="103" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="3" t="s">
         <v>96</v>
       </c>
@@ -3467,7 +3485,7 @@
         <v>1156330800</v>
       </c>
     </row>
-    <row r="104" ht="16.5" spans="1:3">
+    <row r="104" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
         <v>96</v>
       </c>
@@ -3478,7 +3496,7 @@
         <v>1156330900</v>
       </c>
     </row>
-    <row r="105" ht="16.5" spans="1:3">
+    <row r="105" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="3" t="s">
         <v>96</v>
       </c>
@@ -3489,7 +3507,7 @@
         <v>1156331000</v>
       </c>
     </row>
-    <row r="106" ht="16.5" spans="1:3">
+    <row r="106" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" s="3" t="s">
         <v>96</v>
       </c>
@@ -3500,7 +3518,7 @@
         <v>1156331100</v>
       </c>
     </row>
-    <row r="107" ht="16.5" spans="1:3">
+    <row r="107" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="3" t="s">
         <v>108</v>
       </c>
@@ -3511,7 +3529,7 @@
         <v>1156340000</v>
       </c>
     </row>
-    <row r="108" ht="16.5" spans="1:3">
+    <row r="108" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="3" t="s">
         <v>108</v>
       </c>
@@ -3522,7 +3540,7 @@
         <v>1156340100</v>
       </c>
     </row>
-    <row r="109" ht="16.5" spans="1:3">
+    <row r="109" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="3" t="s">
         <v>108</v>
       </c>
@@ -3533,7 +3551,7 @@
         <v>1156340200</v>
       </c>
     </row>
-    <row r="110" ht="16.5" spans="1:3">
+    <row r="110" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="3" t="s">
         <v>108</v>
       </c>
@@ -3544,7 +3562,7 @@
         <v>1156340300</v>
       </c>
     </row>
-    <row r="111" ht="16.5" spans="1:3">
+    <row r="111" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="3" t="s">
         <v>108</v>
       </c>
@@ -3555,7 +3573,7 @@
         <v>1156340400</v>
       </c>
     </row>
-    <row r="112" ht="16.5" spans="1:3">
+    <row r="112" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="3" t="s">
         <v>108</v>
       </c>
@@ -3566,7 +3584,7 @@
         <v>1156340500</v>
       </c>
     </row>
-    <row r="113" ht="16.5" spans="1:3">
+    <row r="113" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="3" t="s">
         <v>108</v>
       </c>
@@ -3577,7 +3595,7 @@
         <v>1156340600</v>
       </c>
     </row>
-    <row r="114" ht="16.5" spans="1:3">
+    <row r="114" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="3" t="s">
         <v>108</v>
       </c>
@@ -3588,7 +3606,7 @@
         <v>1156340700</v>
       </c>
     </row>
-    <row r="115" ht="16.5" spans="1:3">
+    <row r="115" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" s="3" t="s">
         <v>108</v>
       </c>
@@ -3599,7 +3617,7 @@
         <v>1156340800</v>
       </c>
     </row>
-    <row r="116" ht="16.5" spans="1:3">
+    <row r="116" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" s="3" t="s">
         <v>108</v>
       </c>
@@ -3610,7 +3628,7 @@
         <v>1156341000</v>
       </c>
     </row>
-    <row r="117" ht="16.5" spans="1:3">
+    <row r="117" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" s="3" t="s">
         <v>108</v>
       </c>
@@ -3621,7 +3639,7 @@
         <v>1156341100</v>
       </c>
     </row>
-    <row r="118" ht="16.5" spans="1:3">
+    <row r="118" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" s="3" t="s">
         <v>108</v>
       </c>
@@ -3632,7 +3650,7 @@
         <v>1156341200</v>
       </c>
     </row>
-    <row r="119" ht="16.5" spans="1:3">
+    <row r="119" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" s="3" t="s">
         <v>108</v>
       </c>
@@ -3643,7 +3661,7 @@
         <v>1156341300</v>
       </c>
     </row>
-    <row r="120" ht="16.5" spans="1:3">
+    <row r="120" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" s="3" t="s">
         <v>108</v>
       </c>
@@ -3654,7 +3672,7 @@
         <v>1156341400</v>
       </c>
     </row>
-    <row r="121" ht="16.5" spans="1:3">
+    <row r="121" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121" s="3" t="s">
         <v>108</v>
       </c>
@@ -3665,7 +3683,7 @@
         <v>1156341500</v>
       </c>
     </row>
-    <row r="122" ht="16.5" spans="1:3">
+    <row r="122" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122" s="3" t="s">
         <v>108</v>
       </c>
@@ -3676,7 +3694,7 @@
         <v>1156341600</v>
       </c>
     </row>
-    <row r="123" ht="16.5" spans="1:3">
+    <row r="123" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" s="3" t="s">
         <v>108</v>
       </c>
@@ -3687,7 +3705,7 @@
         <v>1156341700</v>
       </c>
     </row>
-    <row r="124" ht="16.5" spans="1:3">
+    <row r="124" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" s="3" t="s">
         <v>108</v>
       </c>
@@ -3698,7 +3716,7 @@
         <v>1156341800</v>
       </c>
     </row>
-    <row r="125" ht="16.5" spans="1:3">
+    <row r="125" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" s="3" t="s">
         <v>126</v>
       </c>
@@ -3709,7 +3727,7 @@
         <v>1156420000</v>
       </c>
     </row>
-    <row r="126" ht="16.5" spans="1:3">
+    <row r="126" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" s="3" t="s">
         <v>126</v>
       </c>
@@ -3720,7 +3738,7 @@
         <v>1156420100</v>
       </c>
     </row>
-    <row r="127" ht="16.5" spans="1:3">
+    <row r="127" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" s="3" t="s">
         <v>126</v>
       </c>
@@ -3731,7 +3749,7 @@
         <v>1156420200</v>
       </c>
     </row>
-    <row r="128" ht="16.5" spans="1:3">
+    <row r="128" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" s="3" t="s">
         <v>126</v>
       </c>
@@ -3742,7 +3760,7 @@
         <v>1156420300</v>
       </c>
     </row>
-    <row r="129" ht="16.5" spans="1:3">
+    <row r="129" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" s="3" t="s">
         <v>126</v>
       </c>
@@ -3753,7 +3771,7 @@
         <v>1156420500</v>
       </c>
     </row>
-    <row r="130" ht="16.5" spans="1:3">
+    <row r="130" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" s="3" t="s">
         <v>126</v>
       </c>
@@ -3764,7 +3782,7 @@
         <v>1156420600</v>
       </c>
     </row>
-    <row r="131" ht="16.5" spans="1:3">
+    <row r="131" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" s="3" t="s">
         <v>126</v>
       </c>
@@ -3775,7 +3793,7 @@
         <v>1156420700</v>
       </c>
     </row>
-    <row r="132" ht="16.5" spans="1:3">
+    <row r="132" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" s="3" t="s">
         <v>126</v>
       </c>
@@ -3786,7 +3804,7 @@
         <v>1156420800</v>
       </c>
     </row>
-    <row r="133" ht="16.5" spans="1:3">
+    <row r="133" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133" s="3" t="s">
         <v>126</v>
       </c>
@@ -3797,7 +3815,7 @@
         <v>1156420900</v>
       </c>
     </row>
-    <row r="134" ht="16.5" spans="1:3">
+    <row r="134" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" s="3" t="s">
         <v>126</v>
       </c>
@@ -3808,7 +3826,7 @@
         <v>1156421000</v>
       </c>
     </row>
-    <row r="135" ht="16.5" spans="1:3">
+    <row r="135" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" s="3" t="s">
         <v>126</v>
       </c>
@@ -3819,7 +3837,7 @@
         <v>1156421100</v>
       </c>
     </row>
-    <row r="136" ht="16.5" spans="1:3">
+    <row r="136" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136" s="3" t="s">
         <v>126</v>
       </c>
@@ -3830,7 +3848,7 @@
         <v>1156421200</v>
       </c>
     </row>
-    <row r="137" ht="16.5" spans="1:3">
+    <row r="137" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" s="3" t="s">
         <v>126</v>
       </c>
@@ -3841,7 +3859,7 @@
         <v>1156421300</v>
       </c>
     </row>
-    <row r="138" ht="16.5" spans="1:3">
+    <row r="138" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138" s="3" t="s">
         <v>126</v>
       </c>
@@ -3852,7 +3870,7 @@
         <v>1156422800</v>
       </c>
     </row>
-    <row r="139" ht="16.5" spans="1:3">
+    <row r="139" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" s="3" t="s">
         <v>126</v>
       </c>
@@ -3863,7 +3881,7 @@
         <v>1156429000</v>
       </c>
     </row>
-    <row r="140" ht="16.5" spans="1:3">
+    <row r="140" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="3" t="s">
         <v>141</v>
       </c>
@@ -3874,7 +3892,7 @@
         <v>1156430000</v>
       </c>
     </row>
-    <row r="141" ht="16.5" spans="1:3">
+    <row r="141" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" s="3" t="s">
         <v>141</v>
       </c>
@@ -3885,7 +3903,7 @@
         <v>1156430100</v>
       </c>
     </row>
-    <row r="142" ht="16.5" spans="1:3">
+    <row r="142" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="3" t="s">
         <v>141</v>
       </c>
@@ -3896,7 +3914,7 @@
         <v>1156430200</v>
       </c>
     </row>
-    <row r="143" ht="16.5" spans="1:3">
+    <row r="143" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" s="3" t="s">
         <v>141</v>
       </c>
@@ -3907,7 +3925,7 @@
         <v>1156430300</v>
       </c>
     </row>
-    <row r="144" ht="16.5" spans="1:3">
+    <row r="144" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144" s="3" t="s">
         <v>141</v>
       </c>
@@ -3918,7 +3936,7 @@
         <v>1156430400</v>
       </c>
     </row>
-    <row r="145" ht="16.5" spans="1:3">
+    <row r="145" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" s="3" t="s">
         <v>141</v>
       </c>
@@ -3929,7 +3947,7 @@
         <v>1156430500</v>
       </c>
     </row>
-    <row r="146" ht="16.5" spans="1:3">
+    <row r="146" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" s="3" t="s">
         <v>141</v>
       </c>
@@ -3940,7 +3958,7 @@
         <v>1156430600</v>
       </c>
     </row>
-    <row r="147" ht="16.5" spans="1:3">
+    <row r="147" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" s="3" t="s">
         <v>141</v>
       </c>
@@ -3951,7 +3969,7 @@
         <v>1156430700</v>
       </c>
     </row>
-    <row r="148" ht="16.5" spans="1:3">
+    <row r="148" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148" s="3" t="s">
         <v>141</v>
       </c>
@@ -3962,7 +3980,7 @@
         <v>1156430800</v>
       </c>
     </row>
-    <row r="149" ht="16.5" spans="1:3">
+    <row r="149" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149" s="3" t="s">
         <v>141</v>
       </c>
@@ -3973,7 +3991,7 @@
         <v>1156430900</v>
       </c>
     </row>
-    <row r="150" ht="16.5" spans="1:3">
+    <row r="150" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150" s="3" t="s">
         <v>141</v>
       </c>
@@ -3984,7 +4002,7 @@
         <v>1156431000</v>
       </c>
     </row>
-    <row r="151" ht="16.5" spans="1:3">
+    <row r="151" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151" s="3" t="s">
         <v>141</v>
       </c>
@@ -3995,7 +4013,7 @@
         <v>1156431100</v>
       </c>
     </row>
-    <row r="152" ht="16.5" spans="1:3">
+    <row r="152" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152" s="3" t="s">
         <v>141</v>
       </c>
@@ -4006,7 +4024,7 @@
         <v>1156431200</v>
       </c>
     </row>
-    <row r="153" ht="16.5" spans="1:3">
+    <row r="153" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153" s="3" t="s">
         <v>141</v>
       </c>
@@ -4017,7 +4035,7 @@
         <v>1156431300</v>
       </c>
     </row>
-    <row r="154" ht="16.5" spans="1:3">
+    <row r="154" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154" s="3" t="s">
         <v>141</v>
       </c>
@@ -4028,7 +4046,7 @@
         <v>1156433100</v>
       </c>
     </row>
-    <row r="155" ht="16.5" spans="1:3">
+    <row r="155" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155" s="3" t="s">
         <v>156</v>
       </c>
@@ -4039,7 +4057,7 @@
         <v>1156510000</v>
       </c>
     </row>
-    <row r="156" ht="16.5" spans="1:3">
+    <row r="156" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156" s="3" t="s">
         <v>156</v>
       </c>
@@ -4050,7 +4068,7 @@
         <v>1156510100</v>
       </c>
     </row>
-    <row r="157" ht="16.5" spans="1:3">
+    <row r="157" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157" s="3" t="s">
         <v>156</v>
       </c>
@@ -4061,7 +4079,7 @@
         <v>1156510300</v>
       </c>
     </row>
-    <row r="158" ht="16.5" spans="1:3">
+    <row r="158" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158" s="3" t="s">
         <v>156</v>
       </c>
@@ -4072,7 +4090,7 @@
         <v>1156510400</v>
       </c>
     </row>
-    <row r="159" ht="16.5" spans="1:3">
+    <row r="159" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159" s="3" t="s">
         <v>156</v>
       </c>
@@ -4083,7 +4101,7 @@
         <v>1156510500</v>
       </c>
     </row>
-    <row r="160" ht="16.5" spans="1:3">
+    <row r="160" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160" s="3" t="s">
         <v>156</v>
       </c>
@@ -4094,7 +4112,7 @@
         <v>1156510600</v>
       </c>
     </row>
-    <row r="161" ht="16.5" spans="1:3">
+    <row r="161" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161" s="3" t="s">
         <v>156</v>
       </c>
@@ -4105,7 +4123,7 @@
         <v>1156510700</v>
       </c>
     </row>
-    <row r="162" ht="16.5" spans="1:3">
+    <row r="162" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162" s="3" t="s">
         <v>156</v>
       </c>
@@ -4116,7 +4134,7 @@
         <v>1156510800</v>
       </c>
     </row>
-    <row r="163" ht="16.5" spans="1:3">
+    <row r="163" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163" s="3" t="s">
         <v>156</v>
       </c>
@@ -4127,7 +4145,7 @@
         <v>1156510900</v>
       </c>
     </row>
-    <row r="164" ht="16.5" spans="1:3">
+    <row r="164" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164" s="3" t="s">
         <v>156</v>
       </c>
@@ -4138,7 +4156,7 @@
         <v>1156511000</v>
       </c>
     </row>
-    <row r="165" ht="16.5" spans="1:3">
+    <row r="165" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A165" s="3" t="s">
         <v>156</v>
       </c>
@@ -4149,7 +4167,7 @@
         <v>1156511100</v>
       </c>
     </row>
-    <row r="166" ht="16.5" spans="1:3">
+    <row r="166" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166" s="3" t="s">
         <v>156</v>
       </c>
@@ -4160,7 +4178,7 @@
         <v>1156511300</v>
       </c>
     </row>
-    <row r="167" ht="16.5" spans="1:3">
+    <row r="167" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A167" s="3" t="s">
         <v>156</v>
       </c>
@@ -4171,7 +4189,7 @@
         <v>1156511400</v>
       </c>
     </row>
-    <row r="168" ht="16.5" spans="1:3">
+    <row r="168" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A168" s="3" t="s">
         <v>156</v>
       </c>
@@ -4182,7 +4200,7 @@
         <v>1156511500</v>
       </c>
     </row>
-    <row r="169" ht="16.5" spans="1:3">
+    <row r="169" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A169" s="3" t="s">
         <v>156</v>
       </c>
@@ -4193,7 +4211,7 @@
         <v>1156511600</v>
       </c>
     </row>
-    <row r="170" ht="16.5" spans="1:3">
+    <row r="170" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A170" s="3" t="s">
         <v>156</v>
       </c>
@@ -4204,7 +4222,7 @@
         <v>1156511700</v>
       </c>
     </row>
-    <row r="171" ht="16.5" spans="1:3">
+    <row r="171" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171" s="3" t="s">
         <v>156</v>
       </c>
@@ -4215,7 +4233,7 @@
         <v>1156511800</v>
       </c>
     </row>
-    <row r="172" ht="16.5" spans="1:3">
+    <row r="172" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A172" s="3" t="s">
         <v>156</v>
       </c>
@@ -4226,7 +4244,7 @@
         <v>1156511900</v>
       </c>
     </row>
-    <row r="173" ht="16.5" spans="1:3">
+    <row r="173" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A173" s="3" t="s">
         <v>156</v>
       </c>
@@ -4237,7 +4255,7 @@
         <v>1156512000</v>
       </c>
     </row>
-    <row r="174" ht="16.5" spans="1:3">
+    <row r="174" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174" s="3" t="s">
         <v>156</v>
       </c>
@@ -4248,7 +4266,7 @@
         <v>1156513200</v>
       </c>
     </row>
-    <row r="175" ht="16.5" spans="1:3">
+    <row r="175" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175" s="3" t="s">
         <v>156</v>
       </c>
@@ -4259,7 +4277,7 @@
         <v>1156513300</v>
       </c>
     </row>
-    <row r="176" ht="16.5" spans="1:3">
+    <row r="176" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A176" s="3" t="s">
         <v>156</v>
       </c>
@@ -4270,7 +4288,7 @@
         <v>1156513400</v>
       </c>
     </row>
-    <row r="177" ht="16.5" spans="1:3">
+    <row r="177" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177" s="3" t="s">
         <v>178</v>
       </c>
@@ -4281,7 +4299,7 @@
         <v>1156520000</v>
       </c>
     </row>
-    <row r="178" ht="16.5" spans="1:3">
+    <row r="178" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178" s="3" t="s">
         <v>178</v>
       </c>
@@ -4292,7 +4310,7 @@
         <v>1156520100</v>
       </c>
     </row>
-    <row r="179" ht="16.5" spans="1:3">
+    <row r="179" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A179" s="3" t="s">
         <v>178</v>
       </c>
@@ -4303,7 +4321,7 @@
         <v>1156520200</v>
       </c>
     </row>
-    <row r="180" ht="16.5" spans="1:3">
+    <row r="180" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A180" s="3" t="s">
         <v>178</v>
       </c>
@@ -4314,7 +4332,7 @@
         <v>1156520300</v>
       </c>
     </row>
-    <row r="181" ht="16.5" spans="1:3">
+    <row r="181" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A181" s="3" t="s">
         <v>178</v>
       </c>
@@ -4325,7 +4343,7 @@
         <v>1156520400</v>
       </c>
     </row>
-    <row r="182" ht="16.5" spans="1:3">
+    <row r="182" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A182" s="3" t="s">
         <v>178</v>
       </c>
@@ -4336,7 +4354,7 @@
         <v>1156522200</v>
       </c>
     </row>
-    <row r="183" ht="16.5" spans="1:3">
+    <row r="183" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A183" s="3" t="s">
         <v>178</v>
       </c>
@@ -4347,7 +4365,7 @@
         <v>1156522300</v>
       </c>
     </row>
-    <row r="184" ht="16.5" spans="1:3">
+    <row r="184" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A184" s="3" t="s">
         <v>178</v>
       </c>
@@ -4358,7 +4376,7 @@
         <v>1156522400</v>
       </c>
     </row>
-    <row r="185" ht="16.5" spans="1:3">
+    <row r="185" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A185" s="3" t="s">
         <v>178</v>
       </c>
@@ -4369,7 +4387,7 @@
         <v>1156522600</v>
       </c>
     </row>
-    <row r="186" ht="16.5" spans="1:3">
+    <row r="186" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A186" s="3" t="s">
         <v>178</v>
       </c>
@@ -4380,7 +4398,7 @@
         <v>1156522700</v>
       </c>
     </row>
-    <row r="187" ht="16.5" spans="1:3">
+    <row r="187" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A187" s="3" t="s">
         <v>188</v>
       </c>
@@ -4391,7 +4409,7 @@
         <v>1156530000</v>
       </c>
     </row>
-    <row r="188" ht="16.5" spans="1:3">
+    <row r="188" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A188" s="3" t="s">
         <v>188</v>
       </c>
@@ -4402,7 +4420,7 @@
         <v>1156530100</v>
       </c>
     </row>
-    <row r="189" ht="16.5" spans="1:3">
+    <row r="189" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A189" s="3" t="s">
         <v>188</v>
       </c>
@@ -4413,7 +4431,7 @@
         <v>1156530300</v>
       </c>
     </row>
-    <row r="190" ht="16.5" spans="1:3">
+    <row r="190" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A190" s="3" t="s">
         <v>188</v>
       </c>
@@ -4424,7 +4442,7 @@
         <v>1156530400</v>
       </c>
     </row>
-    <row r="191" ht="16.5" spans="1:3">
+    <row r="191" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A191" s="3" t="s">
         <v>188</v>
       </c>
@@ -4435,7 +4453,7 @@
         <v>1156530500</v>
       </c>
     </row>
-    <row r="192" ht="16.5" spans="1:3">
+    <row r="192" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A192" s="3" t="s">
         <v>188</v>
       </c>
@@ -4446,7 +4464,7 @@
         <v>1156530600</v>
       </c>
     </row>
-    <row r="193" ht="16.5" spans="1:3">
+    <row r="193" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A193" s="3" t="s">
         <v>188</v>
       </c>
@@ -4457,7 +4475,7 @@
         <v>1156530700</v>
       </c>
     </row>
-    <row r="194" ht="16.5" spans="1:3">
+    <row r="194" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A194" s="3" t="s">
         <v>188</v>
       </c>
@@ -4468,7 +4486,7 @@
         <v>1156530800</v>
       </c>
     </row>
-    <row r="195" ht="16.5" spans="1:3">
+    <row r="195" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A195" s="3" t="s">
         <v>188</v>
       </c>
@@ -4479,7 +4497,7 @@
         <v>1156530900</v>
       </c>
     </row>
-    <row r="196" ht="16.5" spans="1:3">
+    <row r="196" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A196" s="3" t="s">
         <v>188</v>
       </c>
@@ -4490,7 +4508,7 @@
         <v>1156532300</v>
       </c>
     </row>
-    <row r="197" ht="16.5" spans="1:3">
+    <row r="197" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A197" s="3" t="s">
         <v>188</v>
       </c>
@@ -4501,7 +4519,7 @@
         <v>1156532500</v>
       </c>
     </row>
-    <row r="198" ht="16.5" spans="1:3">
+    <row r="198" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A198" s="3" t="s">
         <v>188</v>
       </c>
@@ -4512,7 +4530,7 @@
         <v>1156532600</v>
       </c>
     </row>
-    <row r="199" ht="16.5" spans="1:3">
+    <row r="199" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A199" s="3" t="s">
         <v>188</v>
       </c>
@@ -4523,7 +4541,7 @@
         <v>1156532800</v>
       </c>
     </row>
-    <row r="200" ht="16.5" spans="1:3">
+    <row r="200" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A200" s="3" t="s">
         <v>188</v>
       </c>
@@ -4534,7 +4552,7 @@
         <v>1156532900</v>
       </c>
     </row>
-    <row r="201" ht="16.5" spans="1:3">
+    <row r="201" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A201" s="3" t="s">
         <v>188</v>
       </c>
@@ -4545,7 +4563,7 @@
         <v>1156533100</v>
       </c>
     </row>
-    <row r="202" ht="16.5" spans="1:3">
+    <row r="202" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A202" s="3" t="s">
         <v>188</v>
       </c>
@@ -4556,7 +4574,7 @@
         <v>1156533300</v>
       </c>
     </row>
-    <row r="203" ht="16.5" spans="1:3">
+    <row r="203" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A203" s="3" t="s">
         <v>188</v>
       </c>
@@ -4567,7 +4585,7 @@
         <v>1156533400</v>
       </c>
     </row>
-    <row r="204" ht="16.5" spans="1:3">
+    <row r="204" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A204" s="3" t="s">
         <v>205</v>
       </c>
@@ -4578,7 +4596,7 @@
         <v>1156350000</v>
       </c>
     </row>
-    <row r="205" ht="16.5" spans="1:3">
+    <row r="205" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A205" s="3" t="s">
         <v>205</v>
       </c>
@@ -4589,7 +4607,7 @@
         <v>1156350100</v>
       </c>
     </row>
-    <row r="206" ht="16.5" spans="1:3">
+    <row r="206" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A206" s="3" t="s">
         <v>205</v>
       </c>
@@ -4600,7 +4618,7 @@
         <v>1156350200</v>
       </c>
     </row>
-    <row r="207" ht="16.5" spans="1:3">
+    <row r="207" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A207" s="3" t="s">
         <v>205</v>
       </c>
@@ -4611,7 +4629,7 @@
         <v>1156350300</v>
       </c>
     </row>
-    <row r="208" ht="16.5" spans="1:3">
+    <row r="208" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A208" s="3" t="s">
         <v>205</v>
       </c>
@@ -4622,7 +4640,7 @@
         <v>1156350400</v>
       </c>
     </row>
-    <row r="209" ht="16.5" spans="1:3">
+    <row r="209" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A209" s="3" t="s">
         <v>205</v>
       </c>
@@ -4633,7 +4651,7 @@
         <v>1156350500</v>
       </c>
     </row>
-    <row r="210" ht="16.5" spans="1:3">
+    <row r="210" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A210" s="3" t="s">
         <v>205</v>
       </c>
@@ -4644,7 +4662,7 @@
         <v>1156350600</v>
       </c>
     </row>
-    <row r="211" ht="16.5" spans="1:3">
+    <row r="211" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A211" s="3" t="s">
         <v>205</v>
       </c>
@@ -4655,7 +4673,7 @@
         <v>1156350700</v>
       </c>
     </row>
-    <row r="212" ht="16.5" spans="1:3">
+    <row r="212" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A212" s="3" t="s">
         <v>205</v>
       </c>
@@ -4666,7 +4684,7 @@
         <v>1156350800</v>
       </c>
     </row>
-    <row r="213" ht="16.5" spans="1:3">
+    <row r="213" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A213" s="3" t="s">
         <v>205</v>
       </c>
@@ -4677,7 +4695,7 @@
         <v>1156350900</v>
       </c>
     </row>
-    <row r="214" ht="16.5" spans="1:3">
+    <row r="214" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A214" s="3" t="s">
         <v>215</v>
       </c>
@@ -4688,7 +4706,7 @@
         <v>1156360000</v>
       </c>
     </row>
-    <row r="215" ht="16.5" spans="1:3">
+    <row r="215" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A215" s="3" t="s">
         <v>215</v>
       </c>
@@ -4699,7 +4717,7 @@
         <v>1156360100</v>
       </c>
     </row>
-    <row r="216" ht="16.5" spans="1:3">
+    <row r="216" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A216" s="3" t="s">
         <v>215</v>
       </c>
@@ -4710,7 +4728,7 @@
         <v>1156360200</v>
       </c>
     </row>
-    <row r="217" ht="16.5" spans="1:3">
+    <row r="217" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A217" s="3" t="s">
         <v>215</v>
       </c>
@@ -4721,7 +4739,7 @@
         <v>1156360300</v>
       </c>
     </row>
-    <row r="218" ht="16.5" spans="1:3">
+    <row r="218" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A218" s="3" t="s">
         <v>215</v>
       </c>
@@ -4732,7 +4750,7 @@
         <v>1156360400</v>
       </c>
     </row>
-    <row r="219" ht="16.5" spans="1:3">
+    <row r="219" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A219" s="3" t="s">
         <v>215</v>
       </c>
@@ -4743,7 +4761,7 @@
         <v>1156360500</v>
       </c>
     </row>
-    <row r="220" ht="16.5" spans="1:3">
+    <row r="220" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A220" s="3" t="s">
         <v>215</v>
       </c>
@@ -4754,7 +4772,7 @@
         <v>1156360600</v>
       </c>
     </row>
-    <row r="221" ht="16.5" spans="1:3">
+    <row r="221" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A221" s="3" t="s">
         <v>215</v>
       </c>
@@ -4765,7 +4783,7 @@
         <v>1156360700</v>
       </c>
     </row>
-    <row r="222" ht="16.5" spans="1:3">
+    <row r="222" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A222" s="3" t="s">
         <v>215</v>
       </c>
@@ -4776,7 +4794,7 @@
         <v>1156360800</v>
       </c>
     </row>
-    <row r="223" ht="16.5" spans="1:3">
+    <row r="223" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A223" s="3" t="s">
         <v>215</v>
       </c>
@@ -4787,7 +4805,7 @@
         <v>1156360900</v>
       </c>
     </row>
-    <row r="224" ht="16.5" spans="1:3">
+    <row r="224" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A224" s="3" t="s">
         <v>215</v>
       </c>
@@ -4798,7 +4816,7 @@
         <v>1156361000</v>
       </c>
     </row>
-    <row r="225" ht="16.5" spans="1:3">
+    <row r="225" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A225" s="3" t="s">
         <v>215</v>
       </c>
@@ -4809,7 +4827,7 @@
         <v>1156361100</v>
       </c>
     </row>
-    <row r="226" ht="16.5" spans="1:3">
+    <row r="226" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A226" s="3" t="s">
         <v>227</v>
       </c>
@@ -4820,7 +4838,7 @@
         <v>1156370000</v>
       </c>
     </row>
-    <row r="227" ht="16.5" spans="1:3">
+    <row r="227" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A227" s="3" t="s">
         <v>227</v>
       </c>
@@ -4831,7 +4849,7 @@
         <v>1156370100</v>
       </c>
     </row>
-    <row r="228" ht="16.5" spans="1:3">
+    <row r="228" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A228" s="3" t="s">
         <v>227</v>
       </c>
@@ -4842,7 +4860,7 @@
         <v>1156370200</v>
       </c>
     </row>
-    <row r="229" ht="16.5" spans="1:3">
+    <row r="229" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A229" s="3" t="s">
         <v>227</v>
       </c>
@@ -4853,7 +4871,7 @@
         <v>1156370300</v>
       </c>
     </row>
-    <row r="230" ht="16.5" spans="1:3">
+    <row r="230" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A230" s="3" t="s">
         <v>227</v>
       </c>
@@ -4864,7 +4882,7 @@
         <v>1156370400</v>
       </c>
     </row>
-    <row r="231" ht="16.5" spans="1:3">
+    <row r="231" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A231" s="3" t="s">
         <v>227</v>
       </c>
@@ -4875,7 +4893,7 @@
         <v>1156370500</v>
       </c>
     </row>
-    <row r="232" ht="16.5" spans="1:3">
+    <row r="232" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A232" s="3" t="s">
         <v>227</v>
       </c>
@@ -4886,7 +4904,7 @@
         <v>1156370600</v>
       </c>
     </row>
-    <row r="233" ht="16.5" spans="1:3">
+    <row r="233" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A233" s="3" t="s">
         <v>227</v>
       </c>
@@ -4897,7 +4915,7 @@
         <v>1156370700</v>
       </c>
     </row>
-    <row r="234" ht="16.5" spans="1:3">
+    <row r="234" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A234" s="3" t="s">
         <v>227</v>
       </c>
@@ -4908,7 +4926,7 @@
         <v>1156370800</v>
       </c>
     </row>
-    <row r="235" ht="16.5" spans="1:3">
+    <row r="235" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A235" s="3" t="s">
         <v>227</v>
       </c>
@@ -4919,7 +4937,7 @@
         <v>1156370900</v>
       </c>
     </row>
-    <row r="236" ht="16.5" spans="1:3">
+    <row r="236" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A236" s="3" t="s">
         <v>227</v>
       </c>
@@ -4930,7 +4948,7 @@
         <v>1156371000</v>
       </c>
     </row>
-    <row r="237" ht="16.5" spans="1:3">
+    <row r="237" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A237" s="3" t="s">
         <v>227</v>
       </c>
@@ -4941,7 +4959,7 @@
         <v>1156371100</v>
       </c>
     </row>
-    <row r="238" ht="16.5" spans="1:3">
+    <row r="238" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A238" s="3" t="s">
         <v>227</v>
       </c>
@@ -4952,7 +4970,7 @@
         <v>1156371200</v>
       </c>
     </row>
-    <row r="239" ht="16.5" spans="1:3">
+    <row r="239" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A239" s="3" t="s">
         <v>227</v>
       </c>
@@ -4963,7 +4981,7 @@
         <v>1156371300</v>
       </c>
     </row>
-    <row r="240" ht="16.5" spans="1:3">
+    <row r="240" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A240" s="3" t="s">
         <v>227</v>
       </c>
@@ -4974,7 +4992,7 @@
         <v>1156371400</v>
       </c>
     </row>
-    <row r="241" ht="16.5" spans="1:3">
+    <row r="241" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A241" s="3" t="s">
         <v>227</v>
       </c>
@@ -4985,7 +5003,7 @@
         <v>1156371500</v>
       </c>
     </row>
-    <row r="242" ht="16.5" spans="1:3">
+    <row r="242" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A242" s="3" t="s">
         <v>227</v>
       </c>
@@ -4996,7 +5014,7 @@
         <v>1156371600</v>
       </c>
     </row>
-    <row r="243" ht="16.5" spans="1:3">
+    <row r="243" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A243" s="3" t="s">
         <v>227</v>
       </c>
@@ -5007,7 +5025,7 @@
         <v>1156371700</v>
       </c>
     </row>
-    <row r="244" ht="16.5" spans="1:3">
+    <row r="244" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A244" s="3" t="s">
         <v>245</v>
       </c>
@@ -5018,7 +5036,7 @@
         <v>1156410000</v>
       </c>
     </row>
-    <row r="245" ht="16.5" spans="1:3">
+    <row r="245" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A245" s="3" t="s">
         <v>245</v>
       </c>
@@ -5029,7 +5047,7 @@
         <v>1156410100</v>
       </c>
     </row>
-    <row r="246" ht="16.5" spans="1:3">
+    <row r="246" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A246" s="3" t="s">
         <v>245</v>
       </c>
@@ -5040,7 +5058,7 @@
         <v>1156410200</v>
       </c>
     </row>
-    <row r="247" ht="16.5" spans="1:3">
+    <row r="247" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A247" s="3" t="s">
         <v>245</v>
       </c>
@@ -5051,7 +5069,7 @@
         <v>1156410300</v>
       </c>
     </row>
-    <row r="248" ht="16.5" spans="1:3">
+    <row r="248" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A248" s="3" t="s">
         <v>245</v>
       </c>
@@ -5062,7 +5080,7 @@
         <v>1156410400</v>
       </c>
     </row>
-    <row r="249" ht="16.5" spans="1:3">
+    <row r="249" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A249" s="3" t="s">
         <v>245</v>
       </c>
@@ -5073,7 +5091,7 @@
         <v>1156410500</v>
       </c>
     </row>
-    <row r="250" ht="16.5" spans="1:3">
+    <row r="250" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A250" s="3" t="s">
         <v>245</v>
       </c>
@@ -5084,7 +5102,7 @@
         <v>1156410600</v>
       </c>
     </row>
-    <row r="251" ht="16.5" spans="1:3">
+    <row r="251" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A251" s="3" t="s">
         <v>245</v>
       </c>
@@ -5095,7 +5113,7 @@
         <v>1156410700</v>
       </c>
     </row>
-    <row r="252" ht="16.5" spans="1:3">
+    <row r="252" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A252" s="3" t="s">
         <v>245</v>
       </c>
@@ -5106,7 +5124,7 @@
         <v>1156410800</v>
       </c>
     </row>
-    <row r="253" ht="16.5" spans="1:3">
+    <row r="253" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A253" s="3" t="s">
         <v>245</v>
       </c>
@@ -5117,7 +5135,7 @@
         <v>1156410900</v>
       </c>
     </row>
-    <row r="254" ht="16.5" spans="1:3">
+    <row r="254" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A254" s="3" t="s">
         <v>245</v>
       </c>
@@ -5128,7 +5146,7 @@
         <v>1156411000</v>
       </c>
     </row>
-    <row r="255" ht="16.5" spans="1:3">
+    <row r="255" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A255" s="3" t="s">
         <v>245</v>
       </c>
@@ -5139,7 +5157,7 @@
         <v>1156411100</v>
       </c>
     </row>
-    <row r="256" ht="16.5" spans="1:3">
+    <row r="256" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A256" s="3" t="s">
         <v>245</v>
       </c>
@@ -5150,7 +5168,7 @@
         <v>1156411200</v>
       </c>
     </row>
-    <row r="257" ht="16.5" spans="1:3">
+    <row r="257" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A257" s="3" t="s">
         <v>245</v>
       </c>
@@ -5161,7 +5179,7 @@
         <v>1156411300</v>
       </c>
     </row>
-    <row r="258" ht="16.5" spans="1:3">
+    <row r="258" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A258" s="3" t="s">
         <v>245</v>
       </c>
@@ -5172,7 +5190,7 @@
         <v>1156411400</v>
       </c>
     </row>
-    <row r="259" ht="16.5" spans="1:3">
+    <row r="259" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A259" s="3" t="s">
         <v>245</v>
       </c>
@@ -5183,7 +5201,7 @@
         <v>1156411500</v>
       </c>
     </row>
-    <row r="260" ht="16.5" spans="1:3">
+    <row r="260" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A260" s="3" t="s">
         <v>245</v>
       </c>
@@ -5194,7 +5212,7 @@
         <v>1156411600</v>
       </c>
     </row>
-    <row r="261" ht="16.5" spans="1:3">
+    <row r="261" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A261" s="3" t="s">
         <v>245</v>
       </c>
@@ -5205,7 +5223,7 @@
         <v>1156411700</v>
       </c>
     </row>
-    <row r="262" ht="16.5" spans="1:3">
+    <row r="262" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A262" s="3" t="s">
         <v>245</v>
       </c>
@@ -5216,7 +5234,7 @@
         <v>1156419000</v>
       </c>
     </row>
-    <row r="263" ht="16.5" spans="1:3">
+    <row r="263" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A263" s="3" t="s">
         <v>263</v>
       </c>
@@ -5227,7 +5245,7 @@
         <v>1156440000</v>
       </c>
     </row>
-    <row r="264" ht="16.5" spans="1:3">
+    <row r="264" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A264" s="3" t="s">
         <v>263</v>
       </c>
@@ -5238,7 +5256,7 @@
         <v>1156440100</v>
       </c>
     </row>
-    <row r="265" ht="16.5" spans="1:3">
+    <row r="265" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A265" s="3" t="s">
         <v>263</v>
       </c>
@@ -5249,7 +5267,7 @@
         <v>1156440200</v>
       </c>
     </row>
-    <row r="266" ht="16.5" spans="1:3">
+    <row r="266" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A266" s="3" t="s">
         <v>263</v>
       </c>
@@ -5260,7 +5278,7 @@
         <v>1156440300</v>
       </c>
     </row>
-    <row r="267" ht="16.5" spans="1:3">
+    <row r="267" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A267" s="3" t="s">
         <v>263</v>
       </c>
@@ -5271,7 +5289,7 @@
         <v>1156440400</v>
       </c>
     </row>
-    <row r="268" ht="16.5" spans="1:3">
+    <row r="268" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A268" s="3" t="s">
         <v>263</v>
       </c>
@@ -5282,7 +5300,7 @@
         <v>1156440500</v>
       </c>
     </row>
-    <row r="269" ht="16.5" spans="1:3">
+    <row r="269" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A269" s="3" t="s">
         <v>263</v>
       </c>
@@ -5293,7 +5311,7 @@
         <v>1156440600</v>
       </c>
     </row>
-    <row r="270" ht="16.5" spans="1:3">
+    <row r="270" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A270" s="3" t="s">
         <v>263</v>
       </c>
@@ -5304,7 +5322,7 @@
         <v>1156440700</v>
       </c>
     </row>
-    <row r="271" ht="16.5" spans="1:3">
+    <row r="271" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A271" s="3" t="s">
         <v>263</v>
       </c>
@@ -5315,7 +5333,7 @@
         <v>1156440800</v>
       </c>
     </row>
-    <row r="272" ht="16.5" spans="1:3">
+    <row r="272" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A272" s="3" t="s">
         <v>263</v>
       </c>
@@ -5326,7 +5344,7 @@
         <v>1156440900</v>
       </c>
     </row>
-    <row r="273" ht="16.5" spans="1:3">
+    <row r="273" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A273" s="3" t="s">
         <v>263</v>
       </c>
@@ -5337,7 +5355,7 @@
         <v>1156441200</v>
       </c>
     </row>
-    <row r="274" ht="16.5" spans="1:3">
+    <row r="274" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A274" s="3" t="s">
         <v>263</v>
       </c>
@@ -5348,7 +5366,7 @@
         <v>1156441300</v>
       </c>
     </row>
-    <row r="275" ht="16.5" spans="1:3">
+    <row r="275" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A275" s="3" t="s">
         <v>263</v>
       </c>
@@ -5359,7 +5377,7 @@
         <v>1156441400</v>
       </c>
     </row>
-    <row r="276" ht="16.5" spans="1:3">
+    <row r="276" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A276" s="3" t="s">
         <v>263</v>
       </c>
@@ -5370,7 +5388,7 @@
         <v>1156441500</v>
       </c>
     </row>
-    <row r="277" ht="16.5" spans="1:3">
+    <row r="277" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A277" s="3" t="s">
         <v>263</v>
       </c>
@@ -5381,7 +5399,7 @@
         <v>1156441600</v>
       </c>
     </row>
-    <row r="278" ht="16.5" spans="1:3">
+    <row r="278" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A278" s="3" t="s">
         <v>263</v>
       </c>
@@ -5392,7 +5410,7 @@
         <v>1156441700</v>
       </c>
     </row>
-    <row r="279" ht="16.5" spans="1:3">
+    <row r="279" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A279" s="3" t="s">
         <v>263</v>
       </c>
@@ -5403,7 +5421,7 @@
         <v>1156441800</v>
       </c>
     </row>
-    <row r="280" ht="16.5" spans="1:3">
+    <row r="280" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A280" s="3" t="s">
         <v>263</v>
       </c>
@@ -5414,7 +5432,7 @@
         <v>1156441900</v>
       </c>
     </row>
-    <row r="281" ht="16.5" spans="1:3">
+    <row r="281" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A281" s="3" t="s">
         <v>263</v>
       </c>
@@ -5425,7 +5443,7 @@
         <v>1156442000</v>
       </c>
     </row>
-    <row r="282" ht="16.5" spans="1:3">
+    <row r="282" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A282" s="3" t="s">
         <v>263</v>
       </c>
@@ -5436,7 +5454,7 @@
         <v>1156445100</v>
       </c>
     </row>
-    <row r="283" ht="16.5" spans="1:3">
+    <row r="283" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A283" s="3" t="s">
         <v>263</v>
       </c>
@@ -5447,7 +5465,7 @@
         <v>1156445200</v>
       </c>
     </row>
-    <row r="284" ht="16.5" spans="1:3">
+    <row r="284" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A284" s="3" t="s">
         <v>263</v>
       </c>
@@ -5458,7 +5476,7 @@
         <v>1156445300</v>
       </c>
     </row>
-    <row r="285" ht="16.5" spans="1:3">
+    <row r="285" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A285" s="3" t="s">
         <v>285</v>
       </c>
@@ -5469,7 +5487,7 @@
         <v>1156450000</v>
       </c>
     </row>
-    <row r="286" ht="16.5" spans="1:3">
+    <row r="286" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A286" s="3" t="s">
         <v>285</v>
       </c>
@@ -5480,7 +5498,7 @@
         <v>1156450100</v>
       </c>
     </row>
-    <row r="287" ht="16.5" spans="1:3">
+    <row r="287" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A287" s="3" t="s">
         <v>285</v>
       </c>
@@ -5491,7 +5509,7 @@
         <v>1156450200</v>
       </c>
     </row>
-    <row r="288" ht="16.5" spans="1:3">
+    <row r="288" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A288" s="3" t="s">
         <v>285</v>
       </c>
@@ -5502,7 +5520,7 @@
         <v>1156450300</v>
       </c>
     </row>
-    <row r="289" ht="16.5" spans="1:3">
+    <row r="289" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A289" s="3" t="s">
         <v>285</v>
       </c>
@@ -5513,7 +5531,7 @@
         <v>1156450400</v>
       </c>
     </row>
-    <row r="290" ht="16.5" spans="1:3">
+    <row r="290" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A290" s="3" t="s">
         <v>285</v>
       </c>
@@ -5524,7 +5542,7 @@
         <v>1156450500</v>
       </c>
     </row>
-    <row r="291" ht="16.5" spans="1:3">
+    <row r="291" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A291" s="3" t="s">
         <v>285</v>
       </c>
@@ -5535,7 +5553,7 @@
         <v>1156450600</v>
       </c>
     </row>
-    <row r="292" ht="16.5" spans="1:3">
+    <row r="292" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A292" s="3" t="s">
         <v>285</v>
       </c>
@@ -5546,7 +5564,7 @@
         <v>1156450700</v>
       </c>
     </row>
-    <row r="293" ht="16.5" spans="1:3">
+    <row r="293" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A293" s="3" t="s">
         <v>285</v>
       </c>
@@ -5557,7 +5575,7 @@
         <v>1156450800</v>
       </c>
     </row>
-    <row r="294" ht="16.5" spans="1:3">
+    <row r="294" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A294" s="3" t="s">
         <v>285</v>
       </c>
@@ -5568,7 +5586,7 @@
         <v>1156450900</v>
       </c>
     </row>
-    <row r="295" ht="16.5" spans="1:3">
+    <row r="295" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A295" s="3" t="s">
         <v>285</v>
       </c>
@@ -5579,7 +5597,7 @@
         <v>1156451000</v>
       </c>
     </row>
-    <row r="296" ht="16.5" spans="1:3">
+    <row r="296" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A296" s="3" t="s">
         <v>285</v>
       </c>
@@ -5590,7 +5608,7 @@
         <v>1156451100</v>
       </c>
     </row>
-    <row r="297" ht="16.5" spans="1:3">
+    <row r="297" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A297" s="3" t="s">
         <v>285</v>
       </c>
@@ -5601,7 +5619,7 @@
         <v>1156451200</v>
       </c>
     </row>
-    <row r="298" ht="16.5" spans="1:3">
+    <row r="298" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A298" s="3" t="s">
         <v>285</v>
       </c>
@@ -5612,7 +5630,7 @@
         <v>1156451300</v>
       </c>
     </row>
-    <row r="299" ht="16.5" spans="1:3">
+    <row r="299" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A299" s="3" t="s">
         <v>285</v>
       </c>
@@ -5623,7 +5641,7 @@
         <v>1156451400</v>
       </c>
     </row>
-    <row r="300" ht="16.5" spans="1:3">
+    <row r="300" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A300" s="3" t="s">
         <v>300</v>
       </c>
@@ -5634,7 +5652,7 @@
         <v>1156460000</v>
       </c>
     </row>
-    <row r="301" ht="16.5" spans="1:3">
+    <row r="301" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A301" s="3" t="s">
         <v>300</v>
       </c>
@@ -5645,7 +5663,7 @@
         <v>1156460100</v>
       </c>
     </row>
-    <row r="302" ht="16.5" spans="1:3">
+    <row r="302" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A302" s="3" t="s">
         <v>300</v>
       </c>
@@ -5656,7 +5674,7 @@
         <v>1156460200</v>
       </c>
     </row>
-    <row r="303" ht="16.5" spans="1:3">
+    <row r="303" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A303" s="3" t="s">
         <v>300</v>
       </c>
@@ -5667,7 +5685,7 @@
         <v>1156469000</v>
       </c>
     </row>
-    <row r="304" ht="16.5" spans="1:3">
+    <row r="304" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A304" s="3" t="s">
         <v>303</v>
       </c>
@@ -5678,7 +5696,7 @@
         <v>1156500000</v>
       </c>
     </row>
-    <row r="305" ht="16.5" spans="1:3">
+    <row r="305" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A305" s="3" t="s">
         <v>304</v>
       </c>
@@ -5689,7 +5707,7 @@
         <v>1156540000</v>
       </c>
     </row>
-    <row r="306" ht="16.5" spans="1:3">
+    <row r="306" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A306" s="3" t="s">
         <v>304</v>
       </c>
@@ -5700,7 +5718,7 @@
         <v>1156540100</v>
       </c>
     </row>
-    <row r="307" ht="16.5" spans="1:3">
+    <row r="307" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A307" s="3" t="s">
         <v>304</v>
       </c>
@@ -5711,7 +5729,7 @@
         <v>1156542100</v>
       </c>
     </row>
-    <row r="308" ht="16.5" spans="1:3">
+    <row r="308" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A308" s="3" t="s">
         <v>304</v>
       </c>
@@ -5722,7 +5740,7 @@
         <v>1156542200</v>
       </c>
     </row>
-    <row r="309" ht="16.5" spans="1:3">
+    <row r="309" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A309" s="3" t="s">
         <v>304</v>
       </c>
@@ -5733,7 +5751,7 @@
         <v>1156542300</v>
       </c>
     </row>
-    <row r="310" ht="16.5" spans="1:3">
+    <row r="310" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A310" s="3" t="s">
         <v>304</v>
       </c>
@@ -5744,7 +5762,7 @@
         <v>1156542400</v>
       </c>
     </row>
-    <row r="311" ht="16.5" spans="1:3">
+    <row r="311" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A311" s="3" t="s">
         <v>304</v>
       </c>
@@ -5755,7 +5773,7 @@
         <v>1156542500</v>
       </c>
     </row>
-    <row r="312" ht="16.5" spans="1:3">
+    <row r="312" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A312" s="3" t="s">
         <v>304</v>
       </c>
@@ -5766,7 +5784,7 @@
         <v>1156542600</v>
       </c>
     </row>
-    <row r="313" ht="16.5" spans="1:3">
+    <row r="313" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A313" s="3" t="s">
         <v>312</v>
       </c>
@@ -5777,7 +5795,7 @@
         <v>1156610000</v>
       </c>
     </row>
-    <row r="314" ht="16.5" spans="1:3">
+    <row r="314" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A314" s="3" t="s">
         <v>312</v>
       </c>
@@ -5788,7 +5806,7 @@
         <v>1156610100</v>
       </c>
     </row>
-    <row r="315" ht="16.5" spans="1:3">
+    <row r="315" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A315" s="3" t="s">
         <v>312</v>
       </c>
@@ -5799,7 +5817,7 @@
         <v>1156610200</v>
       </c>
     </row>
-    <row r="316" ht="16.5" spans="1:3">
+    <row r="316" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A316" s="3" t="s">
         <v>312</v>
       </c>
@@ -5810,7 +5828,7 @@
         <v>1156610300</v>
       </c>
     </row>
-    <row r="317" ht="16.5" spans="1:3">
+    <row r="317" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A317" s="3" t="s">
         <v>312</v>
       </c>
@@ -5821,7 +5839,7 @@
         <v>1156610400</v>
       </c>
     </row>
-    <row r="318" ht="16.5" spans="1:3">
+    <row r="318" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A318" s="3" t="s">
         <v>312</v>
       </c>
@@ -5832,7 +5850,7 @@
         <v>1156610500</v>
       </c>
     </row>
-    <row r="319" ht="16.5" spans="1:3">
+    <row r="319" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A319" s="3" t="s">
         <v>312</v>
       </c>
@@ -5843,7 +5861,7 @@
         <v>1156610600</v>
       </c>
     </row>
-    <row r="320" ht="16.5" spans="1:3">
+    <row r="320" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A320" s="3" t="s">
         <v>312</v>
       </c>
@@ -5854,7 +5872,7 @@
         <v>1156610700</v>
       </c>
     </row>
-    <row r="321" ht="16.5" spans="1:3">
+    <row r="321" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A321" s="3" t="s">
         <v>312</v>
       </c>
@@ -5865,7 +5883,7 @@
         <v>1156610800</v>
       </c>
     </row>
-    <row r="322" ht="16.5" spans="1:3">
+    <row r="322" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A322" s="3" t="s">
         <v>312</v>
       </c>
@@ -5876,7 +5894,7 @@
         <v>1156610900</v>
       </c>
     </row>
-    <row r="323" ht="16.5" spans="1:3">
+    <row r="323" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A323" s="3" t="s">
         <v>312</v>
       </c>
@@ -5887,7 +5905,7 @@
         <v>1156611000</v>
       </c>
     </row>
-    <row r="324" ht="16.5" spans="1:3">
+    <row r="324" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A324" s="3" t="s">
         <v>323</v>
       </c>
@@ -5898,7 +5916,7 @@
         <v>1156620000</v>
       </c>
     </row>
-    <row r="325" ht="16.5" spans="1:3">
+    <row r="325" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A325" s="3" t="s">
         <v>323</v>
       </c>
@@ -5909,7 +5927,7 @@
         <v>1156620100</v>
       </c>
     </row>
-    <row r="326" ht="16.5" spans="1:3">
+    <row r="326" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A326" s="3" t="s">
         <v>323</v>
       </c>
@@ -5920,7 +5938,7 @@
         <v>1156620200</v>
       </c>
     </row>
-    <row r="327" ht="16.5" spans="1:3">
+    <row r="327" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A327" s="3" t="s">
         <v>323</v>
       </c>
@@ -5931,7 +5949,7 @@
         <v>1156620300</v>
       </c>
     </row>
-    <row r="328" ht="16.5" spans="1:3">
+    <row r="328" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A328" s="3" t="s">
         <v>323</v>
       </c>
@@ -5942,7 +5960,7 @@
         <v>1156620400</v>
       </c>
     </row>
-    <row r="329" ht="16.5" spans="1:3">
+    <row r="329" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A329" s="3" t="s">
         <v>323</v>
       </c>
@@ -5953,7 +5971,7 @@
         <v>1156620500</v>
       </c>
     </row>
-    <row r="330" ht="16.5" spans="1:3">
+    <row r="330" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A330" s="3" t="s">
         <v>323</v>
       </c>
@@ -5964,7 +5982,7 @@
         <v>1156620600</v>
       </c>
     </row>
-    <row r="331" ht="16.5" spans="1:3">
+    <row r="331" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A331" s="3" t="s">
         <v>323</v>
       </c>
@@ -5975,7 +5993,7 @@
         <v>1156620700</v>
       </c>
     </row>
-    <row r="332" ht="16.5" spans="1:3">
+    <row r="332" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A332" s="3" t="s">
         <v>323</v>
       </c>
@@ -5986,7 +6004,7 @@
         <v>1156620800</v>
       </c>
     </row>
-    <row r="333" ht="16.5" spans="1:3">
+    <row r="333" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A333" s="3" t="s">
         <v>323</v>
       </c>
@@ -5997,7 +6015,7 @@
         <v>1156620900</v>
       </c>
     </row>
-    <row r="334" ht="16.5" spans="1:3">
+    <row r="334" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A334" s="3" t="s">
         <v>323</v>
       </c>
@@ -6008,7 +6026,7 @@
         <v>1156621000</v>
       </c>
     </row>
-    <row r="335" ht="16.5" spans="1:3">
+    <row r="335" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A335" s="3" t="s">
         <v>323</v>
       </c>
@@ -6019,7 +6037,7 @@
         <v>1156621100</v>
       </c>
     </row>
-    <row r="336" ht="16.5" spans="1:3">
+    <row r="336" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A336" s="3" t="s">
         <v>323</v>
       </c>
@@ -6030,7 +6048,7 @@
         <v>1156621200</v>
       </c>
     </row>
-    <row r="337" ht="16.5" spans="1:3">
+    <row r="337" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A337" s="3" t="s">
         <v>323</v>
       </c>
@@ -6041,7 +6059,7 @@
         <v>1156622900</v>
       </c>
     </row>
-    <row r="338" ht="16.5" spans="1:3">
+    <row r="338" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A338" s="3" t="s">
         <v>323</v>
       </c>
@@ -6052,7 +6070,7 @@
         <v>1156623000</v>
       </c>
     </row>
-    <row r="339" ht="16.5" spans="1:3">
+    <row r="339" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A339" s="3" t="s">
         <v>338</v>
       </c>
@@ -6063,7 +6081,7 @@
         <v>1156630000</v>
       </c>
     </row>
-    <row r="340" ht="16.5" spans="1:3">
+    <row r="340" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A340" s="3" t="s">
         <v>338</v>
       </c>
@@ -6074,7 +6092,7 @@
         <v>1156630100</v>
       </c>
     </row>
-    <row r="341" ht="16.5" spans="1:3">
+    <row r="341" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A341" s="3" t="s">
         <v>338</v>
       </c>
@@ -6085,7 +6103,7 @@
         <v>1156632100</v>
       </c>
     </row>
-    <row r="342" ht="16.5" spans="1:3">
+    <row r="342" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A342" s="3" t="s">
         <v>338</v>
       </c>
@@ -6096,7 +6114,7 @@
         <v>1156632200</v>
       </c>
     </row>
-    <row r="343" ht="16.5" spans="1:3">
+    <row r="343" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A343" s="3" t="s">
         <v>338</v>
       </c>
@@ -6107,7 +6125,7 @@
         <v>1156632300</v>
       </c>
     </row>
-    <row r="344" ht="16.5" spans="1:3">
+    <row r="344" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A344" s="3" t="s">
         <v>338</v>
       </c>
@@ -6118,7 +6136,7 @@
         <v>1156632500</v>
       </c>
     </row>
-    <row r="345" ht="16.5" spans="1:3">
+    <row r="345" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A345" s="3" t="s">
         <v>338</v>
       </c>
@@ -6129,7 +6147,7 @@
         <v>1156632600</v>
       </c>
     </row>
-    <row r="346" ht="16.5" spans="1:3">
+    <row r="346" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A346" s="3" t="s">
         <v>338</v>
       </c>
@@ -6140,7 +6158,7 @@
         <v>1156632700</v>
       </c>
     </row>
-    <row r="347" ht="16.5" spans="1:3">
+    <row r="347" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A347" s="3" t="s">
         <v>338</v>
       </c>
@@ -6151,7 +6169,7 @@
         <v>1156632800</v>
       </c>
     </row>
-    <row r="348" ht="16.5" spans="1:3">
+    <row r="348" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A348" s="3" t="s">
         <v>347</v>
       </c>
@@ -6162,7 +6180,7 @@
         <v>1156640000</v>
       </c>
     </row>
-    <row r="349" ht="16.5" spans="1:3">
+    <row r="349" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A349" s="3" t="s">
         <v>347</v>
       </c>
@@ -6173,7 +6191,7 @@
         <v>1156640100</v>
       </c>
     </row>
-    <row r="350" ht="16.5" spans="1:3">
+    <row r="350" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A350" s="3" t="s">
         <v>347</v>
       </c>
@@ -6184,7 +6202,7 @@
         <v>1156640200</v>
       </c>
     </row>
-    <row r="351" ht="16.5" spans="1:3">
+    <row r="351" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A351" s="3" t="s">
         <v>347</v>
       </c>
@@ -6195,7 +6213,7 @@
         <v>1156640300</v>
       </c>
     </row>
-    <row r="352" ht="16.5" spans="1:3">
+    <row r="352" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A352" s="3" t="s">
         <v>347</v>
       </c>
@@ -6206,7 +6224,7 @@
         <v>1156640400</v>
       </c>
     </row>
-    <row r="353" ht="16.5" spans="1:3">
+    <row r="353" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A353" s="3" t="s">
         <v>347</v>
       </c>
@@ -6217,7 +6235,7 @@
         <v>1156640500</v>
       </c>
     </row>
-    <row r="354" ht="16.5" spans="1:3">
+    <row r="354" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A354" s="3" t="s">
         <v>353</v>
       </c>
@@ -6228,7 +6246,7 @@
         <v>1156650000</v>
       </c>
     </row>
-    <row r="355" ht="16.5" spans="1:3">
+    <row r="355" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A355" s="3" t="s">
         <v>353</v>
       </c>
@@ -6239,7 +6257,7 @@
         <v>1156650100</v>
       </c>
     </row>
-    <row r="356" ht="16.5" spans="1:3">
+    <row r="356" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A356" s="3" t="s">
         <v>353</v>
       </c>
@@ -6250,7 +6268,7 @@
         <v>1156650200</v>
       </c>
     </row>
-    <row r="357" ht="16.5" spans="1:3">
+    <row r="357" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A357" s="3" t="s">
         <v>353</v>
       </c>
@@ -6261,7 +6279,7 @@
         <v>1156652100</v>
       </c>
     </row>
-    <row r="358" ht="16.5" spans="1:3">
+    <row r="358" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A358" s="3" t="s">
         <v>353</v>
       </c>
@@ -6272,7 +6290,7 @@
         <v>1156652200</v>
       </c>
     </row>
-    <row r="359" ht="16.5" spans="1:3">
+    <row r="359" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A359" s="3" t="s">
         <v>353</v>
       </c>
@@ -6283,7 +6301,7 @@
         <v>1156652300</v>
       </c>
     </row>
-    <row r="360" ht="16.5" spans="1:3">
+    <row r="360" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A360" s="3" t="s">
         <v>353</v>
       </c>
@@ -6294,7 +6312,7 @@
         <v>1156652700</v>
       </c>
     </row>
-    <row r="361" ht="16.5" spans="1:3">
+    <row r="361" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A361" s="3" t="s">
         <v>353</v>
       </c>
@@ -6305,7 +6323,7 @@
         <v>1156652800</v>
       </c>
     </row>
-    <row r="362" ht="16.5" spans="1:3">
+    <row r="362" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A362" s="3" t="s">
         <v>353</v>
       </c>
@@ -6316,7 +6334,7 @@
         <v>1156652900</v>
       </c>
     </row>
-    <row r="363" ht="16.5" spans="1:3">
+    <row r="363" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A363" s="3" t="s">
         <v>353</v>
       </c>
@@ -6327,7 +6345,7 @@
         <v>1156653000</v>
       </c>
     </row>
-    <row r="364" ht="16.5" spans="1:3">
+    <row r="364" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A364" s="3" t="s">
         <v>353</v>
       </c>
@@ -6338,7 +6356,7 @@
         <v>1156653100</v>
       </c>
     </row>
-    <row r="365" ht="16.5" spans="1:3">
+    <row r="365" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A365" s="3" t="s">
         <v>353</v>
       </c>
@@ -6349,7 +6367,7 @@
         <v>1156653200</v>
       </c>
     </row>
-    <row r="366" ht="16.5" spans="1:3">
+    <row r="366" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A366" s="3" t="s">
         <v>353</v>
       </c>
@@ -6360,7 +6378,7 @@
         <v>1156654000</v>
       </c>
     </row>
-    <row r="367" ht="16.5" spans="1:3">
+    <row r="367" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A367" s="3" t="s">
         <v>353</v>
       </c>
@@ -6371,7 +6389,7 @@
         <v>1156654200</v>
       </c>
     </row>
-    <row r="368" ht="16.5" spans="1:3">
+    <row r="368" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A368" s="3" t="s">
         <v>353</v>
       </c>
@@ -6382,7 +6400,7 @@
         <v>1156654300</v>
       </c>
     </row>
-    <row r="369" ht="16.5" spans="1:3">
+    <row r="369" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A369" s="3" t="s">
         <v>353</v>
       </c>
@@ -6393,7 +6411,7 @@
         <v>1156659000</v>
       </c>
     </row>
-    <row r="370" ht="16.5" spans="1:3">
+    <row r="370" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A370" s="3" t="s">
         <v>369</v>
       </c>
@@ -6404,7 +6422,7 @@
         <v>1020000000</v>
       </c>
     </row>
-    <row r="371" ht="16.5" spans="1:3">
+    <row r="371" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A371" s="3" t="s">
         <v>369</v>
       </c>
@@ -6415,7 +6433,7 @@
         <v>1784000000</v>
       </c>
     </row>
-    <row r="372" ht="16.5" spans="1:3">
+    <row r="372" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A372" s="3" t="s">
         <v>369</v>
       </c>
@@ -6426,7 +6444,7 @@
         <v>1004000000</v>
       </c>
     </row>
-    <row r="373" ht="16.5" spans="1:3">
+    <row r="373" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A373" s="3" t="s">
         <v>369</v>
       </c>
@@ -6437,7 +6455,7 @@
         <v>1028000000</v>
       </c>
     </row>
-    <row r="374" ht="16.5" spans="1:3">
+    <row r="374" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A374" s="3" t="s">
         <v>369</v>
       </c>
@@ -6448,7 +6466,7 @@
         <v>1660000000</v>
       </c>
     </row>
-    <row r="375" ht="16.5" spans="1:3">
+    <row r="375" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A375" s="3" t="s">
         <v>369</v>
       </c>
@@ -6459,7 +6477,7 @@
         <v>1008000000</v>
       </c>
     </row>
-    <row r="376" ht="16.5" spans="1:3">
+    <row r="376" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A376" s="3" t="s">
         <v>369</v>
       </c>
@@ -6470,7 +6488,7 @@
         <v>1051000000</v>
       </c>
     </row>
-    <row r="377" ht="16.5" spans="1:3">
+    <row r="377" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A377" s="3" t="s">
         <v>369</v>
       </c>
@@ -6481,7 +6499,7 @@
         <v>1024000000</v>
       </c>
     </row>
-    <row r="378" ht="16.5" spans="1:3">
+    <row r="378" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A378" s="3" t="s">
         <v>369</v>
       </c>
@@ -6492,7 +6510,7 @@
         <v>1010000000</v>
       </c>
     </row>
-    <row r="379" ht="16.5" spans="1:3">
+    <row r="379" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A379" s="3" t="s">
         <v>369</v>
       </c>
@@ -6503,7 +6521,7 @@
         <v>1032000000</v>
       </c>
     </row>
-    <row r="380" ht="16.5" spans="1:3">
+    <row r="380" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A380" s="3" t="s">
         <v>369</v>
       </c>
@@ -6514,7 +6532,7 @@
         <v>1016000000</v>
       </c>
     </row>
-    <row r="381" ht="16.5" spans="1:3">
+    <row r="381" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A381" s="3" t="s">
         <v>369</v>
       </c>
@@ -6525,7 +6543,7 @@
         <v>1040000000</v>
       </c>
     </row>
-    <row r="382" ht="16.5" spans="1:3">
+    <row r="382" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A382" s="3" t="s">
         <v>369</v>
       </c>
@@ -6536,7 +6554,7 @@
         <v>1036000000</v>
       </c>
     </row>
-    <row r="383" ht="16.5" spans="1:3">
+    <row r="383" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A383" s="3" t="s">
         <v>369</v>
       </c>
@@ -6547,7 +6565,7 @@
         <v>1533000000</v>
       </c>
     </row>
-    <row r="384" ht="16.5" spans="1:3">
+    <row r="384" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A384" s="3" t="s">
         <v>369</v>
       </c>
@@ -6558,7 +6576,7 @@
         <v>1248000000</v>
       </c>
     </row>
-    <row r="385" ht="16.5" spans="1:3">
+    <row r="385" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A385" s="3" t="s">
         <v>369</v>
       </c>
@@ -6569,7 +6587,7 @@
         <v>1031000000</v>
       </c>
     </row>
-    <row r="386" ht="16.5" spans="1:3">
+    <row r="386" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A386" s="3" t="s">
         <v>369</v>
       </c>
@@ -6580,7 +6598,7 @@
         <v>1070000000</v>
       </c>
     </row>
-    <row r="387" ht="16.5" spans="1:3">
+    <row r="387" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A387" s="3" t="s">
         <v>369</v>
       </c>
@@ -6591,2550 +6609,2557 @@
         <v>1052000000</v>
       </c>
     </row>
-    <row r="388" ht="16.5" spans="1:3">
+    <row r="388" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A388" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>388</v>
+        <v>596</v>
       </c>
       <c r="C388" s="3">
         <v>1050000000</v>
       </c>
     </row>
-    <row r="389" ht="16.5" spans="1:3">
+    <row r="389" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A389" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C389" s="3">
         <v>1056000000</v>
       </c>
     </row>
-    <row r="390" ht="16.5" spans="1:3">
+    <row r="390" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A390" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C390" s="3">
         <v>1854000000</v>
       </c>
     </row>
-    <row r="391" ht="16.5" spans="1:3">
+    <row r="391" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A391" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C391" s="3">
         <v>1100000000</v>
       </c>
     </row>
-    <row r="392" ht="16.5" spans="1:3">
+    <row r="392" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A392" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C392" s="3">
         <v>1048000000</v>
       </c>
     </row>
-    <row r="393" ht="16.5" spans="1:3">
+    <row r="393" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A393" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C393" s="3">
         <v>1108000000</v>
       </c>
     </row>
-    <row r="394" ht="16.5" spans="1:3">
+    <row r="394" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A394" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C394" s="3">
         <v>1204000000</v>
       </c>
     </row>
-    <row r="395" ht="16.5" spans="1:3">
+    <row r="395" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A395" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C395" s="3">
         <v>1652000000</v>
       </c>
     </row>
-    <row r="396" ht="16.5" spans="1:3">
+    <row r="396" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A396" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C396" s="3">
         <v>1060000000</v>
       </c>
     </row>
-    <row r="397" ht="16.5" spans="1:3">
+    <row r="397" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A397" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C397" s="3">
         <v>1096000000</v>
       </c>
     </row>
-    <row r="398" ht="16.5" spans="1:3">
+    <row r="398" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A398" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C398" s="3">
         <v>1068000000</v>
       </c>
     </row>
-    <row r="399" ht="16.5" spans="1:3">
+    <row r="399" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A399" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C399" s="3">
         <v>1535000000</v>
       </c>
     </row>
-    <row r="400" ht="16.5" spans="1:3">
+    <row r="400" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A400" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C400" s="3">
         <v>1076000000</v>
       </c>
     </row>
-    <row r="401" ht="16.5" spans="1:3">
+    <row r="401" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A401" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C401" s="3">
         <v>1044000000</v>
       </c>
     </row>
-    <row r="402" ht="16.5" spans="1:3">
+    <row r="402" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A402" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C402" s="3">
         <v>1064000000</v>
       </c>
     </row>
-    <row r="403" ht="16.5" spans="1:3">
+    <row r="403" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A403" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C403" s="3">
         <v>1074000000</v>
       </c>
     </row>
-    <row r="404" ht="16.5" spans="1:3">
+    <row r="404" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A404" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C404" s="3">
         <v>1072000000</v>
       </c>
     </row>
-    <row r="405" ht="16.5" spans="1:3">
+    <row r="405" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A405" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C405" s="3">
         <v>1112000000</v>
       </c>
     </row>
-    <row r="406" ht="16.5" spans="1:3">
+    <row r="406" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A406" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C406" s="3">
         <v>1084000000</v>
       </c>
     </row>
-    <row r="407" ht="16.5" spans="1:3">
+    <row r="407" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A407" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C407" s="3">
         <v>1124000000</v>
       </c>
     </row>
-    <row r="408" ht="16.5" spans="1:3">
+    <row r="408" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A408" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>408</v>
+        <v>612</v>
       </c>
       <c r="C408" s="3">
         <v>1166000000</v>
       </c>
     </row>
-    <row r="409" ht="16.5" spans="1:3">
+    <row r="409" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A409" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>409</v>
+        <v>603</v>
       </c>
       <c r="C409" s="3">
         <v>1180000000</v>
       </c>
     </row>
-    <row r="410" ht="16.5" spans="1:3">
+    <row r="410" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A410" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C410" s="3">
         <v>1140000000</v>
       </c>
     </row>
-    <row r="411" ht="16.5" spans="1:3">
+    <row r="411" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A411" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>411</v>
+        <v>602</v>
       </c>
       <c r="C411" s="3">
         <v>1178000000</v>
       </c>
     </row>
-    <row r="412" ht="16.5" spans="1:3">
+    <row r="412" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A412" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C412" s="3">
         <v>1756000000</v>
       </c>
     </row>
-    <row r="413" ht="16.5" spans="1:3">
+    <row r="413" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A413" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C413" s="3">
         <v>1384000000</v>
       </c>
     </row>
-    <row r="414" ht="16.5" spans="1:3">
+    <row r="414" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A414" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C414" s="3">
         <v>1184000000</v>
       </c>
     </row>
-    <row r="415" ht="16.5" spans="1:3">
+    <row r="415" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A415" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C415" s="3">
         <v>1152000000</v>
       </c>
     </row>
-    <row r="416" ht="16.5" spans="1:3">
+    <row r="416" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A416" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C416" s="3">
         <v>1120000000</v>
       </c>
     </row>
-    <row r="417" ht="16.5" spans="1:3">
+    <row r="417" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A417" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C417" s="3">
         <v>1156000000</v>
       </c>
     </row>
-    <row r="418" ht="16.5" spans="1:3">
+    <row r="418" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A418" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C418" s="3">
         <v>1170000000</v>
       </c>
     </row>
-    <row r="419" ht="16.5" spans="1:3">
+    <row r="419" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A419" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C419" s="3">
         <v>1188000000</v>
       </c>
     </row>
-    <row r="420" ht="16.5" spans="1:3">
+    <row r="420" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A420" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C420" s="3">
         <v>1192000000</v>
       </c>
     </row>
-    <row r="421" ht="16.5" spans="1:3">
+    <row r="421" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A421" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C421" s="3">
         <v>1132000000</v>
       </c>
     </row>
-    <row r="422" ht="16.5" spans="1:3">
+    <row r="422" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A422" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C422" s="3">
         <v>1162000000</v>
       </c>
     </row>
-    <row r="423" ht="16.5" spans="1:3">
+    <row r="423" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A423" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C423" s="3">
         <v>1196000000</v>
       </c>
     </row>
-    <row r="424" ht="16.5" spans="1:3">
+    <row r="424" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A424" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C424" s="3">
         <v>1203000000</v>
       </c>
     </row>
-    <row r="425" ht="16.5" spans="1:3">
+    <row r="425" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A425" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C425" s="3">
         <v>1276000000</v>
       </c>
     </row>
-    <row r="426" ht="16.5" spans="1:3">
+    <row r="426" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A426" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C426" s="3">
         <v>1262000000</v>
       </c>
     </row>
-    <row r="427" ht="16.5" spans="1:3">
+    <row r="427" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A427" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C427" s="3">
         <v>1208000000</v>
       </c>
     </row>
-    <row r="428" ht="16.5" spans="1:3">
+    <row r="428" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A428" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C428" s="3">
         <v>1212000000</v>
       </c>
     </row>
-    <row r="429" ht="16.5" spans="1:3">
+    <row r="429" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A429" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>429</v>
+        <v>594</v>
       </c>
       <c r="C429" s="3">
         <v>1214000000</v>
       </c>
     </row>
-    <row r="430" ht="16.5" spans="1:3">
+    <row r="430" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A430" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C430" s="3">
         <v>1012000000</v>
       </c>
     </row>
-    <row r="431" ht="16.5" spans="1:3">
+    <row r="431" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A431" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C431" s="3">
         <v>1218000000</v>
       </c>
     </row>
-    <row r="432" ht="16.5" spans="1:3">
+    <row r="432" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A432" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C432" s="3">
         <v>1233000000</v>
       </c>
     </row>
-    <row r="433" ht="16.5" spans="1:3">
+    <row r="433" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A433" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C433" s="3">
         <v>1818000000</v>
       </c>
     </row>
-    <row r="434" ht="16.5" spans="1:3">
+    <row r="434" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A434" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C434" s="3">
         <v>1732000000</v>
       </c>
     </row>
-    <row r="435" ht="16.5" spans="1:3">
+    <row r="435" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A435" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C435" s="3">
         <v>1232000000</v>
       </c>
     </row>
-    <row r="436" ht="16.5" spans="1:3">
+    <row r="436" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A436" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C436" s="3">
         <v>1724000000</v>
       </c>
     </row>
-    <row r="437" ht="16.5" spans="1:3">
+    <row r="437" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A437" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C437" s="3">
         <v>1231000000</v>
       </c>
     </row>
-    <row r="438" ht="16.5" spans="1:3">
+    <row r="438" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A438" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C438" s="3">
         <v>1246000000</v>
       </c>
     </row>
-    <row r="439" ht="16.5" spans="1:3">
+    <row r="439" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A439" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>439</v>
+        <v>597</v>
       </c>
       <c r="C439" s="3">
         <v>1242000000</v>
       </c>
     </row>
-    <row r="440" ht="16.5" spans="1:3">
+    <row r="440" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A440" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>440</v>
+        <v>617</v>
       </c>
       <c r="C440" s="3">
         <v>1238000000</v>
       </c>
     </row>
-    <row r="441" ht="16.5" spans="1:3">
+    <row r="441" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A441" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>441</v>
+        <v>619</v>
       </c>
       <c r="C441" s="3">
         <v>1583000000</v>
       </c>
     </row>
-    <row r="442" ht="16.5" spans="1:3">
+    <row r="442" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A442" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C442" s="3">
         <v>1234000000</v>
       </c>
     </row>
-    <row r="443" ht="16.5" spans="1:3">
+    <row r="443" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A443" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C443" s="3">
         <v>1250000000</v>
       </c>
     </row>
-    <row r="444" ht="16.5" spans="1:3">
+    <row r="444" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A444" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C444" s="3">
         <v>1266000000</v>
       </c>
     </row>
-    <row r="445" ht="16.5" spans="1:3">
+    <row r="445" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A445" s="3" t="s">
-        <v>369</v>
+        <v>590</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C445" s="3">
         <v>1826000000</v>
       </c>
     </row>
-    <row r="446" ht="16.5" spans="1:3">
+    <row r="446" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A446" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C446" s="3">
         <v>1308000000</v>
       </c>
     </row>
-    <row r="447" ht="16.5" spans="1:3">
+    <row r="447" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A447" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C447" s="3">
         <v>1268000000</v>
       </c>
     </row>
-    <row r="448" ht="16.5" spans="1:3">
+    <row r="448" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A448" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C448" s="3">
         <v>1254000000</v>
       </c>
     </row>
-    <row r="449" ht="16.5" spans="1:3">
+    <row r="449" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A449" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>449</v>
+        <v>601</v>
       </c>
       <c r="C449" s="3">
         <v>1831000000</v>
       </c>
     </row>
-    <row r="450" ht="16.5" spans="1:3">
+    <row r="450" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A450" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C450" s="3">
         <v>1288000000</v>
       </c>
     </row>
-    <row r="451" ht="16.5" spans="1:3">
+    <row r="451" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A451" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C451" s="3">
         <v>1292000000</v>
       </c>
     </row>
-    <row r="452" ht="16.5" spans="1:3">
+    <row r="452" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A452" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C452" s="3">
         <v>1304000000</v>
       </c>
     </row>
-    <row r="453" ht="16.5" spans="1:3">
+    <row r="453" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A453" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C453" s="3">
         <v>1270000000</v>
       </c>
     </row>
-    <row r="454" ht="16.5" spans="1:3">
+    <row r="454" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A454" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C454" s="3">
         <v>1324000000</v>
       </c>
     </row>
-    <row r="455" ht="16.5" spans="1:3">
+    <row r="455" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A455" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C455" s="3">
         <v>1312000000</v>
       </c>
     </row>
-    <row r="456" ht="16.5" spans="1:3">
+    <row r="456" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A456" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C456" s="3">
         <v>1226000000</v>
       </c>
     </row>
-    <row r="457" ht="16.5" spans="1:3">
+    <row r="457" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A457" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C457" s="3">
         <v>1300000000</v>
       </c>
     </row>
-    <row r="458" ht="16.5" spans="1:3">
+    <row r="458" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A458" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>458</v>
+        <v>613</v>
       </c>
       <c r="C458" s="3">
         <v>1239000000</v>
       </c>
     </row>
-    <row r="459" ht="16.5" spans="1:3">
+    <row r="459" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A459" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="C459" s="3">
         <v>1320000000</v>
       </c>
     </row>
-    <row r="460" ht="16.5" spans="1:3">
+    <row r="460" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A460" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C460" s="3">
         <v>1316000000</v>
       </c>
     </row>
-    <row r="461" ht="16.5" spans="1:3">
+    <row r="461" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A461" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="C461" s="3">
         <v>1624000000</v>
       </c>
     </row>
-    <row r="462" ht="16.5" spans="1:3">
+    <row r="462" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A462" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C462" s="3">
         <v>1328000000</v>
       </c>
     </row>
-    <row r="463" ht="16.5" spans="1:3">
+    <row r="463" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A463" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C463" s="3">
         <v>1344000000</v>
       </c>
     </row>
-    <row r="464" ht="16.5" spans="1:3">
+    <row r="464" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A464" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="C464" s="3">
         <v>1334000000</v>
       </c>
     </row>
-    <row r="465" ht="16.5" spans="1:3">
+    <row r="465" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A465" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C465" s="3">
         <v>1340000000</v>
       </c>
     </row>
-    <row r="466" ht="16.5" spans="1:3">
+    <row r="466" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A466" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="C466" s="3">
         <v>1191000000</v>
       </c>
     </row>
-    <row r="467" ht="16.5" spans="1:3">
+    <row r="467" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A467" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="C467" s="3">
         <v>1332000000</v>
       </c>
     </row>
-    <row r="468" ht="16.5" spans="1:3">
+    <row r="468" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A468" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C468" s="3">
         <v>1348000000</v>
       </c>
     </row>
-    <row r="469" ht="16.5" spans="1:3">
+    <row r="469" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A469" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>469</v>
+        <v>595</v>
       </c>
       <c r="C469" s="3">
         <v>1360000000</v>
       </c>
     </row>
-    <row r="470" ht="16.5" spans="1:3">
+    <row r="470" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A470" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="C470" s="3">
         <v>1372000000</v>
       </c>
     </row>
-    <row r="471" ht="16.5" spans="1:3">
+    <row r="471" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A471" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="C471" s="3">
         <v>1376000000</v>
       </c>
     </row>
-    <row r="472" ht="16.5" spans="1:3">
+    <row r="472" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A472" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="C472" s="3">
         <v>1833000000</v>
       </c>
     </row>
-    <row r="473" ht="16.5" spans="1:3">
+    <row r="473" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A473" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="C473" s="3">
         <v>1356000000</v>
       </c>
     </row>
-    <row r="474" ht="16.5" spans="1:3">
+    <row r="474" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A474" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>474</v>
+        <v>608</v>
       </c>
       <c r="C474" s="3">
         <v>1086000000</v>
       </c>
     </row>
-    <row r="475" ht="16.5" spans="1:3">
+    <row r="475" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A475" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="C475" s="3">
         <v>1368000000</v>
       </c>
     </row>
-    <row r="476" ht="16.5" spans="1:3">
+    <row r="476" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A476" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="C476" s="3">
         <v>1364000000</v>
       </c>
     </row>
-    <row r="477" ht="16.5" spans="1:3">
+    <row r="477" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A477" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C477" s="3">
         <v>1352000000</v>
       </c>
     </row>
-    <row r="478" ht="16.5" spans="1:3">
+    <row r="478" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A478" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="C478" s="3">
         <v>1380000000</v>
       </c>
     </row>
-    <row r="479" ht="16.5" spans="1:3">
+    <row r="479" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A479" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="C479" s="3">
         <v>1832000000</v>
       </c>
     </row>
-    <row r="480" ht="16.5" spans="1:3">
+    <row r="480" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A480" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="C480" s="3">
         <v>1388000000</v>
       </c>
     </row>
-    <row r="481" ht="16.5" spans="1:3">
+    <row r="481" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A481" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="C481" s="3">
         <v>1400000000</v>
       </c>
     </row>
-    <row r="482" ht="16.5" spans="1:3">
+    <row r="482" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A482" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="C482" s="3">
         <v>1392000000</v>
       </c>
     </row>
-    <row r="483" ht="16.5" spans="1:3">
+    <row r="483" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A483" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C483" s="3">
         <v>1404000000</v>
       </c>
     </row>
-    <row r="484" ht="16.5" spans="1:3">
+    <row r="484" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A484" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="C484" s="3">
         <v>1417000000</v>
       </c>
     </row>
-    <row r="485" ht="16.5" spans="1:3">
+    <row r="485" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A485" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="C485" s="3">
         <v>1116000000</v>
       </c>
     </row>
-    <row r="486" ht="16.5" spans="1:3">
+    <row r="486" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A486" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="C486" s="3">
         <v>1296000000</v>
       </c>
     </row>
-    <row r="487" ht="16.5" spans="1:3">
+    <row r="487" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A487" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="C487" s="3">
         <v>1174000000</v>
       </c>
     </row>
-    <row r="488" ht="16.5" spans="1:3">
+    <row r="488" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A488" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="C488" s="3">
         <v>1659000000</v>
       </c>
     </row>
-    <row r="489" ht="16.5" spans="1:3">
+    <row r="489" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A489" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="C489" s="3">
         <v>1408000000</v>
       </c>
     </row>
-    <row r="490" ht="16.5" spans="1:3">
+    <row r="490" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A490" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="C490" s="3">
         <v>1410000000</v>
       </c>
     </row>
-    <row r="491" ht="16.5" spans="1:3">
+    <row r="491" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A491" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="C491" s="3">
         <v>1414000000</v>
       </c>
     </row>
-    <row r="492" ht="16.5" spans="1:3">
+    <row r="492" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A492" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C492" s="3">
         <v>1136000000</v>
       </c>
     </row>
-    <row r="493" ht="16.5" spans="1:3">
+    <row r="493" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A493" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="C493" s="3">
         <v>1398000000</v>
       </c>
     </row>
-    <row r="494" ht="16.5" spans="1:3">
+    <row r="494" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A494" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="C494" s="3">
         <v>1418000000</v>
       </c>
     </row>
-    <row r="495" ht="16.5" spans="1:3">
+    <row r="495" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A495" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C495" s="3">
         <v>1422000000</v>
       </c>
     </row>
-    <row r="496" ht="16.5" spans="1:3">
+    <row r="496" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A496" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C496" s="3">
         <v>1662000000</v>
       </c>
     </row>
-    <row r="497" ht="16.5" spans="1:3">
+    <row r="497" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A497" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C497" s="3">
         <v>1438000000</v>
       </c>
     </row>
-    <row r="498" ht="16.5" spans="1:3">
+    <row r="498" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A498" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C498" s="3">
         <v>1144000000</v>
       </c>
     </row>
-    <row r="499" ht="16.5" spans="1:3">
+    <row r="499" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A499" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C499" s="3">
         <v>1430000000</v>
       </c>
     </row>
-    <row r="500" ht="16.5" spans="1:3">
+    <row r="500" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A500" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C500" s="3">
         <v>1426000000</v>
       </c>
     </row>
-    <row r="501" ht="16.5" spans="1:3">
+    <row r="501" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A501" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C501" s="3">
         <v>1440000000</v>
       </c>
     </row>
-    <row r="502" ht="16.5" spans="1:3">
+    <row r="502" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A502" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="C502" s="3">
         <v>1442000000</v>
       </c>
     </row>
-    <row r="503" ht="16.5" spans="1:3">
+    <row r="503" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A503" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C503" s="3">
         <v>1428000000</v>
       </c>
     </row>
-    <row r="504" ht="16.5" spans="1:3">
+    <row r="504" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A504" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C504" s="3">
         <v>1434000000</v>
       </c>
     </row>
-    <row r="505" ht="16.5" spans="1:3">
+    <row r="505" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A505" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="C505" s="3">
         <v>1504000000</v>
       </c>
     </row>
-    <row r="506" ht="16.5" spans="1:3">
+    <row r="506" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A506" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="C506" s="3">
         <v>1492000000</v>
       </c>
     </row>
-    <row r="507" ht="16.5" spans="1:3">
+    <row r="507" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A507" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="C507" s="3">
         <v>1498000000</v>
       </c>
     </row>
-    <row r="508" ht="16.5" spans="1:3">
+    <row r="508" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A508" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>508</v>
+        <v>600</v>
       </c>
       <c r="C508" s="3">
         <v>1499000000</v>
       </c>
     </row>
-    <row r="509" ht="16.5" spans="1:3">
+    <row r="509" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A509" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="C509" s="3">
         <v>1663000000</v>
       </c>
     </row>
-    <row r="510" ht="16.5" spans="1:3">
+    <row r="510" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A510" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="C510" s="3">
         <v>1450000000</v>
       </c>
     </row>
-    <row r="511" ht="16.5" spans="1:3">
+    <row r="511" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A511" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="C511" s="3">
         <v>1584000000</v>
       </c>
     </row>
-    <row r="512" ht="16.5" spans="1:3">
+    <row r="512" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A512" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>512</v>
+        <v>593</v>
       </c>
       <c r="C512" s="3">
         <v>1807000000</v>
       </c>
     </row>
-    <row r="513" ht="16.5" spans="1:3">
+    <row r="513" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A513" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="C513" s="3">
         <v>1466000000</v>
       </c>
     </row>
-    <row r="514" ht="16.5" spans="1:3">
+    <row r="514" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A514" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="C514" s="3">
         <v>1104000000</v>
       </c>
     </row>
-    <row r="515" ht="16.5" spans="1:3">
+    <row r="515" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A515" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>515</v>
+        <v>598</v>
       </c>
       <c r="C515" s="3">
         <v>1496000000</v>
       </c>
     </row>
-    <row r="516" ht="16.5" spans="1:3">
+    <row r="516" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A516" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="C516" s="3">
         <v>1446000000</v>
       </c>
     </row>
-    <row r="517" ht="16.5" spans="1:3">
+    <row r="517" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A517" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>517</v>
+        <v>618</v>
       </c>
       <c r="C517" s="3">
         <v>1580000000</v>
       </c>
     </row>
-    <row r="518" ht="16.5" spans="1:3">
+    <row r="518" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A518" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="C518" s="3">
         <v>1474000000</v>
       </c>
     </row>
-    <row r="519" ht="16.5" spans="1:3">
+    <row r="519" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A519" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="C519" s="3">
         <v>1478000000</v>
       </c>
     </row>
-    <row r="520" ht="16.5" spans="1:3">
+    <row r="520" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A520" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>520</v>
+        <v>605</v>
       </c>
       <c r="C520" s="3">
         <v>1500000000</v>
       </c>
     </row>
-    <row r="521" ht="16.5" spans="1:3">
+    <row r="521" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A521" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="C521" s="3">
         <v>1470000000</v>
       </c>
     </row>
-    <row r="522" ht="16.5" spans="1:3">
+    <row r="522" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A522" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="C522" s="3">
         <v>1480000000</v>
       </c>
     </row>
-    <row r="523" ht="16.5" spans="1:3">
+    <row r="523" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A523" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="C523" s="3">
         <v>1462000000</v>
       </c>
     </row>
-    <row r="524" ht="16.5" spans="1:3">
+    <row r="524" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A524" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="C524" s="3">
         <v>1454000000</v>
       </c>
     </row>
-    <row r="525" ht="16.5" spans="1:3">
+    <row r="525" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A525" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="C525" s="3">
         <v>1484000000</v>
       </c>
     </row>
-    <row r="526" ht="16.5" spans="1:3">
+    <row r="526" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A526" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="C526" s="3">
         <v>1458000000</v>
       </c>
     </row>
-    <row r="527" ht="16.5" spans="1:3">
+    <row r="527" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A527" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="C527" s="3">
         <v>1508000000</v>
       </c>
     </row>
-    <row r="528" ht="16.5" spans="1:3">
+    <row r="528" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A528" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="C528" s="3">
         <v>1516000000</v>
       </c>
     </row>
-    <row r="529" ht="16.5" spans="1:3">
+    <row r="529" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A529" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="C529" s="3">
         <v>1540000000</v>
       </c>
     </row>
-    <row r="530" ht="16.5" spans="1:3">
+    <row r="530" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A530" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="C530" s="3">
         <v>1562000000</v>
       </c>
     </row>
-    <row r="531" ht="16.5" spans="1:3">
+    <row r="531" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A531" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="C531" s="3">
         <v>1574000000</v>
       </c>
     </row>
-    <row r="532" ht="16.5" spans="1:3">
+    <row r="532" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A532" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="C532" s="3">
         <v>1566000000</v>
       </c>
     </row>
-    <row r="533" ht="16.5" spans="1:3">
+    <row r="533" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A533" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="C533" s="3">
         <v>1558000000</v>
       </c>
     </row>
-    <row r="534" ht="16.5" spans="1:3">
+    <row r="534" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A534" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="C534" s="3">
         <v>1528000000</v>
       </c>
     </row>
-    <row r="535" ht="16.5" spans="1:3">
+    <row r="535" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A535" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="C535" s="3">
         <v>1578000000</v>
       </c>
     </row>
-    <row r="536" ht="16.5" spans="1:3">
+    <row r="536" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A536" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="C536" s="3">
         <v>1524000000</v>
       </c>
     </row>
-    <row r="537" ht="16.5" spans="1:3">
+    <row r="537" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A537" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="C537" s="3">
         <v>1520000000</v>
       </c>
     </row>
-    <row r="538" ht="16.5" spans="1:3">
+    <row r="538" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A538" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="C538" s="3">
         <v>1570000000</v>
       </c>
     </row>
-    <row r="539" ht="16.5" spans="1:3">
+    <row r="539" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A539" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="C539" s="3">
         <v>1554000000</v>
       </c>
     </row>
-    <row r="540" ht="16.5" spans="1:3">
+    <row r="540" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A540" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="C540" s="3">
         <v>1512000000</v>
       </c>
     </row>
-    <row r="541" ht="16.5" spans="1:3">
+    <row r="541" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A541" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="C541" s="3">
         <v>1591000000</v>
       </c>
     </row>
-    <row r="542" ht="16.5" spans="1:3">
+    <row r="542" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A542" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="C542" s="3">
         <v>1604000000</v>
       </c>
     </row>
-    <row r="543" ht="16.5" spans="1:3">
+    <row r="543" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A543" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="C543" s="3">
         <v>1258000000</v>
       </c>
     </row>
-    <row r="544" ht="16.5" spans="1:3">
+    <row r="544" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A544" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="C544" s="3">
         <v>1598000000</v>
       </c>
     </row>
-    <row r="545" ht="16.5" spans="1:3">
+    <row r="545" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A545" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="C545" s="3">
         <v>1608000000</v>
       </c>
     </row>
-    <row r="546" ht="16.5" spans="1:3">
+    <row r="546" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A546" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="C546" s="3">
         <v>1586000000</v>
       </c>
     </row>
-    <row r="547" ht="16.5" spans="1:3">
+    <row r="547" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A547" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="C547" s="3">
         <v>1616000000</v>
       </c>
     </row>
-    <row r="548" ht="16.5" spans="1:3">
+    <row r="548" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A548" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="C548" s="3">
         <v>1666000000</v>
       </c>
     </row>
-    <row r="549" ht="16.5" spans="1:3">
+    <row r="549" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A549" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="C549" s="3">
         <v>1612000000</v>
       </c>
     </row>
-    <row r="550" ht="16.5" spans="1:3">
+    <row r="550" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A550" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="C550" s="3">
         <v>1630000000</v>
       </c>
     </row>
-    <row r="551" ht="16.5" spans="1:3">
+    <row r="551" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A551" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="C551" s="3">
         <v>1275000000</v>
       </c>
     </row>
-    <row r="552" ht="16.5" spans="1:3">
+    <row r="552" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A552" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="C552" s="3">
         <v>1620000000</v>
       </c>
     </row>
-    <row r="553" ht="16.5" spans="1:3">
+    <row r="553" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A553" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>553</v>
+        <v>615</v>
       </c>
       <c r="C553" s="3">
         <v>1585000000</v>
       </c>
     </row>
-    <row r="554" ht="16.5" spans="1:3">
+    <row r="554" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A554" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="C554" s="3">
         <v>1600000000</v>
       </c>
     </row>
-    <row r="555" ht="16.5" spans="1:3">
+    <row r="555" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A555" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="C555" s="3">
         <v>1634000000</v>
       </c>
     </row>
-    <row r="556" ht="16.5" spans="1:3">
+    <row r="556" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A556" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="C556" s="3">
         <v>1638000000</v>
       </c>
     </row>
-    <row r="557" ht="16.5" spans="1:3">
+    <row r="557" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A557" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="C557" s="3">
         <v>1642000000</v>
       </c>
     </row>
-    <row r="558" ht="16.5" spans="1:3">
+    <row r="558" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A558" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="C558" s="3">
         <v>1688000000</v>
       </c>
     </row>
-    <row r="559" ht="16.5" spans="1:3">
+    <row r="559" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A559" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="C559" s="3">
         <v>1643000000</v>
       </c>
     </row>
-    <row r="560" ht="16.5" spans="1:3">
+    <row r="560" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A560" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="C560" s="3">
         <v>1646000000</v>
       </c>
     </row>
-    <row r="561" ht="16.5" spans="1:3">
+    <row r="561" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A561" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>561</v>
+        <v>592</v>
       </c>
       <c r="C561" s="3">
         <v>1682000000</v>
       </c>
     </row>
-    <row r="562" ht="16.5" spans="1:3">
+    <row r="562" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A562" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="C562" s="3">
         <v>1090000000</v>
       </c>
     </row>
-    <row r="563" ht="16.5" spans="1:3">
+    <row r="563" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A563" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="C563" s="3">
         <v>1690000000</v>
       </c>
     </row>
-    <row r="564" ht="16.5" spans="1:3">
+    <row r="564" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A564" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="C564" s="3">
         <v>1729000000</v>
       </c>
     </row>
-    <row r="565" ht="16.5" spans="1:3">
+    <row r="565" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A565" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="C565" s="3">
         <v>1752000000</v>
       </c>
     </row>
-    <row r="566" ht="16.5" spans="1:3">
+    <row r="566" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A566" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="C566" s="3">
         <v>1702000000</v>
       </c>
     </row>
-    <row r="567" ht="16.5" spans="1:3">
+    <row r="567" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A567" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C567" s="3">
         <v>1654000000</v>
       </c>
     </row>
-    <row r="568" ht="16.5" spans="1:3">
+    <row r="568" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A568" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="C568" s="3">
         <v>1705000000</v>
       </c>
     </row>
-    <row r="569" ht="16.5" spans="1:3">
+    <row r="569" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A569" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>569</v>
+        <v>611</v>
       </c>
       <c r="C569" s="3">
         <v>1744000000</v>
       </c>
     </row>
-    <row r="570" ht="16.5" spans="1:3">
+    <row r="570" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A570" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="C570" s="3">
         <v>1703000000</v>
       </c>
     </row>
-    <row r="571" ht="16.5" spans="1:3">
+    <row r="571" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A571" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="C571" s="3">
         <v>1694000000</v>
       </c>
     </row>
-    <row r="572" ht="16.5" spans="1:3">
+    <row r="572" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A572" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="C572" s="3">
         <v>1674000000</v>
       </c>
     </row>
-    <row r="573" ht="16.5" spans="1:3">
+    <row r="573" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A573" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="C573" s="3">
         <v>1686000000</v>
       </c>
     </row>
-    <row r="574" ht="16.5" spans="1:3">
+    <row r="574" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A574" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="C574" s="3">
         <v>1706000000</v>
       </c>
     </row>
-    <row r="575" ht="16.5" spans="1:3">
+    <row r="575" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A575" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="C575" s="3">
         <v>1740000000</v>
       </c>
     </row>
-    <row r="576" ht="16.5" spans="1:3">
+    <row r="576" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A576" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>576</v>
+        <v>604</v>
       </c>
       <c r="C576" s="3">
         <v>1728000000</v>
       </c>
     </row>
-    <row r="577" ht="16.5" spans="1:3">
+    <row r="577" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A577" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>577</v>
+        <v>616</v>
       </c>
       <c r="C577" s="3">
         <v>1678000000</v>
       </c>
     </row>
-    <row r="578" ht="16.5" spans="1:3">
+    <row r="578" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A578" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="C578" s="3">
         <v>1222000000</v>
       </c>
     </row>
-    <row r="579" ht="16.5" spans="1:3">
+    <row r="579" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A579" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="C579" s="3">
         <v>1760000000</v>
       </c>
     </row>
-    <row r="580" ht="16.5" spans="1:3">
+    <row r="580" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A580" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>580</v>
+        <v>557</v>
       </c>
       <c r="C580" s="3">
         <v>1748000000</v>
       </c>
     </row>
-    <row r="581" ht="16.5" spans="1:3">
+    <row r="581" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A581" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>581</v>
+        <v>606</v>
       </c>
       <c r="C581" s="3">
         <v>1796000000</v>
       </c>
     </row>
-    <row r="582" ht="16.5" spans="1:3">
+    <row r="582" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A582" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="C582" s="3">
         <v>1148000000</v>
       </c>
     </row>
-    <row r="583" ht="16.5" spans="1:3">
+    <row r="583" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A583" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>583</v>
+        <v>610</v>
       </c>
       <c r="C583" s="3">
         <v>1260000000</v>
       </c>
     </row>
-    <row r="584" ht="16.5" spans="1:3">
+    <row r="584" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A584" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="C584" s="3">
         <v>1768000000</v>
       </c>
     </row>
-    <row r="585" ht="16.5" spans="1:3">
+    <row r="585" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A585" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="C585" s="3">
         <v>1764000000</v>
       </c>
     </row>
-    <row r="586" ht="16.5" spans="1:3">
+    <row r="586" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A586" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="C586" s="3">
         <v>1762000000</v>
       </c>
     </row>
-    <row r="587" ht="16.5" spans="1:3">
+    <row r="587" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A587" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="C587" s="3">
         <v>1772000000</v>
       </c>
     </row>
-    <row r="588" ht="16.5" spans="1:3">
+    <row r="588" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A588" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="C588" s="3">
         <v>1626000000</v>
       </c>
     </row>
-    <row r="589" ht="16.5" spans="1:3">
+    <row r="589" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A589" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="C589" s="3">
         <v>1795000000</v>
       </c>
     </row>
-    <row r="590" ht="16.5" spans="1:3">
+    <row r="590" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A590" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="C590" s="3">
         <v>1788000000</v>
       </c>
     </row>
-    <row r="591" ht="16.5" spans="1:3">
+    <row r="591" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A591" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>591</v>
+        <v>566</v>
       </c>
       <c r="C591" s="3">
         <v>1776000000</v>
       </c>
     </row>
-    <row r="592" ht="16.5" spans="1:3">
+    <row r="592" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A592" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>592</v>
+        <v>567</v>
       </c>
       <c r="C592" s="3">
         <v>1792000000</v>
       </c>
     </row>
-    <row r="593" ht="16.5" spans="1:3">
+    <row r="593" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A593" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="C593" s="3">
         <v>1780000000</v>
       </c>
     </row>
-    <row r="594" ht="16.5" spans="1:3">
+    <row r="594" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A594" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="C594" s="3">
         <v>1798000000</v>
       </c>
     </row>
-    <row r="595" ht="16.5" spans="1:3">
+    <row r="595" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A595" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="C595" s="3">
         <v>1158000000</v>
       </c>
     </row>
-    <row r="596" ht="16.5" spans="1:3">
+    <row r="596" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A596" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
       <c r="C596" s="3">
         <v>1834000000</v>
       </c>
     </row>
-    <row r="597" ht="16.5" spans="1:3">
+    <row r="597" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A597" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="C597" s="3">
         <v>1804000000</v>
       </c>
     </row>
-    <row r="598" ht="16.5" spans="1:3">
+    <row r="598" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A598" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="C598" s="3">
         <v>1800000000</v>
       </c>
     </row>
-    <row r="599" ht="16.5" spans="1:3">
+    <row r="599" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A599" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="C599" s="3">
         <v>1581000000</v>
       </c>
     </row>
-    <row r="600" ht="16.5" spans="1:3">
+    <row r="600" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A600" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>600</v>
+        <v>574</v>
       </c>
       <c r="C600" s="3">
         <v>1840000000</v>
       </c>
     </row>
-    <row r="601" ht="16.5" spans="1:3">
+    <row r="601" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A601" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>601</v>
+        <v>575</v>
       </c>
       <c r="C601" s="3">
         <v>1858000000</v>
       </c>
     </row>
-    <row r="602" ht="16.5" spans="1:3">
+    <row r="602" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A602" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>602</v>
+        <v>576</v>
       </c>
       <c r="C602" s="3">
         <v>1860000000</v>
       </c>
     </row>
-    <row r="603" ht="16.5" spans="1:3">
+    <row r="603" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A603" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="C603" s="3">
         <v>1336000000</v>
       </c>
     </row>
-    <row r="604" ht="16.5" spans="1:3">
+    <row r="604" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A604" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>604</v>
+        <v>578</v>
       </c>
       <c r="C604" s="3">
         <v>1670000000</v>
       </c>
     </row>
-    <row r="605" ht="16.5" spans="1:3">
+    <row r="605" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A605" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="C605" s="3">
         <v>1862000000</v>
       </c>
     </row>
-    <row r="606" ht="16.5" spans="1:3">
+    <row r="606" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A606" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>606</v>
+        <v>580</v>
       </c>
       <c r="C606" s="3">
         <v>1092000000</v>
       </c>
     </row>
-    <row r="607" ht="16.5" spans="1:3">
+    <row r="607" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A607" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="C607" s="3">
         <v>1850000000</v>
       </c>
     </row>
-    <row r="608" ht="16.5" spans="1:3">
+    <row r="608" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A608" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>608</v>
+        <v>582</v>
       </c>
       <c r="C608" s="3">
         <v>1704000000</v>
       </c>
     </row>
-    <row r="609" ht="16.5" spans="1:3">
+    <row r="609" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A609" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="C609" s="3">
         <v>1548000000</v>
       </c>
     </row>
-    <row r="610" ht="16.5" spans="1:3">
+    <row r="610" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A610" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="C610" s="3">
         <v>1876000000</v>
       </c>
     </row>
-    <row r="611" ht="16.5" spans="1:3">
+    <row r="611" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A611" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C611" s="3">
         <v>1882000000</v>
       </c>
     </row>
-    <row r="612" ht="16.5" spans="1:3">
+    <row r="612" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A612" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="C612" s="3">
         <v>1887000000</v>
       </c>
     </row>
-    <row r="613" ht="16.5" spans="1:3">
+    <row r="613" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A613" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>613</v>
+        <v>585</v>
       </c>
       <c r="C613" s="3">
         <v>1175000000</v>
       </c>
     </row>
-    <row r="614" ht="16.5" spans="1:3">
+    <row r="614" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A614" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>614</v>
+        <v>586</v>
       </c>
       <c r="C614" s="3">
         <v>1710000000</v>
       </c>
     </row>
-    <row r="615" ht="16.5" spans="1:3">
+    <row r="615" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A615" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>615</v>
+        <v>587</v>
       </c>
       <c r="C615" s="3">
         <v>1894000000</v>
       </c>
     </row>
-    <row r="616" ht="16.5" spans="1:3">
+    <row r="616" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A616" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>616</v>
+        <v>588</v>
       </c>
       <c r="C616" s="3">
         <v>1716000000</v>
       </c>
     </row>
-    <row r="617" ht="16.5" spans="1:3">
+    <row r="617" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A617" s="3" t="s">
-        <v>617</v>
+        <v>589</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>617</v>
+        <v>589</v>
       </c>
       <c r="C617" s="3">
         <v>1000000000</v>
       </c>
     </row>
-    <row r="618" ht="16.5" spans="1:3">
+    <row r="618" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A618" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>417</v>
+        <v>591</v>
       </c>
       <c r="C618" s="3">
         <v>1156000000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C618"/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <autoFilter ref="A1:C618">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="全球"/>
+        <filter val="中国"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>